--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_0_34.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_0_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2890437.395798415</v>
+        <v>2889603.07338303</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5736895.963613645</v>
+        <v>5736895.963613641</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169739.126259457</v>
+        <v>999110.8234231323</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6493529.884359007</v>
+        <v>6519794.335707743</v>
       </c>
     </row>
     <row r="11">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>254.4742268619419</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C2" t="n">
-        <v>6.023344779862555</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4192906078700389</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E2" t="n">
-        <v>10.19681332827224</v>
+        <v>258.0733269906323</v>
       </c>
       <c r="F2" t="n">
         <v>16.8201079258493</v>
       </c>
       <c r="G2" t="n">
-        <v>4.641001266096112</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>84.69237527656912</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
         <v>157.8996982303191</v>
@@ -834,7 +834,7 @@
         <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -873,19 +873,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>54.68688746169084</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="5">
@@ -895,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6.11896786784456</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C5" t="n">
-        <v>6.023344779862555</v>
+        <v>36.98813290822214</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4192906078700389</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E5" t="n">
         <v>10.19681332827224</v>
       </c>
       <c r="F5" t="n">
-        <v>160.0627857994665</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>404.6410012660961</v>
+        <v>4.641001266096112</v>
       </c>
       <c r="H5" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
         <v>115.1825854367171</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1110,19 +1110,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9604235189134</v>
+        <v>27.35334490128912</v>
       </c>
       <c r="Y7" t="n">
-        <v>65.32317679212774</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="8">
@@ -1135,7 +1135,7 @@
         <v>6.11896786784456</v>
       </c>
       <c r="C8" t="n">
-        <v>302.3398778399651</v>
+        <v>80.02871049750352</v>
       </c>
       <c r="D8" t="n">
         <v>400.41929060787</v>
@@ -1150,10 +1150,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1302,16 +1302,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1350,16 +1350,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>106.9706214097031</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
-        <v>165.4216953850578</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>376.6200261415066</v>
+        <v>49.12308702887171</v>
       </c>
       <c r="C11" t="n">
-        <v>376.5244030535246</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D11" t="n">
-        <v>370.920348881532</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
-        <v>380.6978716019343</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
-        <v>387.3211661995113</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>375.1420595397581</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H11" t="n">
-        <v>278.3004706722212</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I11" t="n">
-        <v>55.98930332975957</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>104.4293227275022</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T11" t="n">
-        <v>190.4854774862718</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U11" t="n">
-        <v>224.990945096747</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V11" t="n">
-        <v>316.8402373905461</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
-        <v>350.4237561298451</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
-        <v>367.138022126399</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
-        <v>367.4283645950528</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="12">
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>156.323767603766</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>8.655162248451997</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>128.4007565039811</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>129.8027652540257</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>136.078945437374</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>118.6124389162599</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>54.92104941501635</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>155.0289087125508</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>207.6543099067269</v>
+        <v>228.2601210751805</v>
       </c>
       <c r="U13" t="n">
-        <v>250.4712242529991</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>206.4614817925755</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
-        <v>192.9893998987849</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="14">
@@ -1606,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>376.6200261415066</v>
+        <v>377.2861800552282</v>
       </c>
       <c r="C14" t="n">
-        <v>376.5244030535246</v>
+        <v>377.1905569672462</v>
       </c>
       <c r="D14" t="n">
-        <v>370.9203488815321</v>
+        <v>371.5865027952537</v>
       </c>
       <c r="E14" t="n">
-        <v>380.6978716019343</v>
+        <v>381.3640255156559</v>
       </c>
       <c r="F14" t="n">
-        <v>387.3211661995114</v>
+        <v>387.987320113233</v>
       </c>
       <c r="G14" t="n">
-        <v>375.1420595397582</v>
+        <v>375.8082134534798</v>
       </c>
       <c r="H14" t="n">
-        <v>278.3004706722213</v>
+        <v>278.9666245859428</v>
       </c>
       <c r="I14" t="n">
-        <v>55.98930332975964</v>
+        <v>46.66314853765697</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>104.4293227275022</v>
+        <v>105.0954766412238</v>
       </c>
       <c r="T14" t="n">
-        <v>190.4854774862718</v>
+        <v>191.1516313999934</v>
       </c>
       <c r="U14" t="n">
-        <v>224.9909450967471</v>
+        <v>225.6570990104687</v>
       </c>
       <c r="V14" t="n">
-        <v>316.8402373905462</v>
+        <v>317.5063913042678</v>
       </c>
       <c r="W14" t="n">
-        <v>350.4237561298452</v>
+        <v>351.0899100435668</v>
       </c>
       <c r="X14" t="n">
-        <v>367.1380221263991</v>
+        <v>367.8041760401206</v>
       </c>
       <c r="Y14" t="n">
-        <v>367.4283645950526</v>
+        <v>368.0945185087745</v>
       </c>
     </row>
     <row r="15">
@@ -1767,22 +1767,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>139.8834969875627</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>129.8027652540258</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>134.1520268178983</v>
       </c>
       <c r="G16" t="n">
-        <v>136.0789454373741</v>
+        <v>136.7450993510957</v>
       </c>
       <c r="H16" t="n">
-        <v>89.07292994949928</v>
+        <v>119.2785928299816</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,25 +1815,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>155.0289087125509</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>207.654309906727</v>
+        <v>208.3204638204486</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>251.1373781667208</v>
       </c>
       <c r="V16" t="n">
-        <v>241.6479458835353</v>
+        <v>242.3140997972569</v>
       </c>
       <c r="W16" t="n">
-        <v>246.7800261198764</v>
+        <v>247.446180033598</v>
       </c>
       <c r="X16" t="n">
-        <v>206.4614817925755</v>
+        <v>207.1276357062971</v>
       </c>
       <c r="Y16" t="n">
-        <v>192.989399898785</v>
+        <v>193.6555538125066</v>
       </c>
     </row>
     <row r="17">
@@ -2007,16 +2007,16 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>128.4007565039811</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>129.8027652540258</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>136.0789454373741</v>
+        <v>88.04314577169667</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2055,10 +2055,10 @@
         <v>155.0289087125509</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>207.654309906727</v>
       </c>
       <c r="U19" t="n">
-        <v>151.8862127360418</v>
+        <v>250.4712242529991</v>
       </c>
       <c r="V19" t="n">
         <v>241.6479458835353</v>
@@ -2101,7 +2101,7 @@
         <v>278.3004706722213</v>
       </c>
       <c r="I20" t="n">
-        <v>55.98930332975964</v>
+        <v>55.98930332975884</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2238,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C22" t="n">
-        <v>139.8834969875627</v>
+        <v>88.04314577169667</v>
       </c>
       <c r="D22" t="n">
-        <v>128.4007565039811</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>129.8027652540258</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>133.4858729041767</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>136.0789454373741</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>118.61243891626</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>54.92104941501641</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>155.0289087125509</v>
@@ -2298,16 +2298,16 @@
         <v>250.4712242529991</v>
       </c>
       <c r="V22" t="n">
-        <v>84.59895985926266</v>
+        <v>241.6479458835353</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>246.7800261198764</v>
       </c>
       <c r="X22" t="n">
         <v>206.4614817925755</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>192.989399898785</v>
       </c>
     </row>
     <row r="23">
@@ -2317,28 +2317,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>376.6200261415065</v>
+        <v>376.6200261415066</v>
       </c>
       <c r="C23" t="n">
-        <v>376.5244030535245</v>
+        <v>376.5244030535246</v>
       </c>
       <c r="D23" t="n">
-        <v>370.920348881532</v>
+        <v>370.9203488815321</v>
       </c>
       <c r="E23" t="n">
-        <v>380.6978716019342</v>
+        <v>380.6978716019343</v>
       </c>
       <c r="F23" t="n">
-        <v>387.3211661995113</v>
+        <v>387.3211661995114</v>
       </c>
       <c r="G23" t="n">
-        <v>375.1420595397581</v>
+        <v>375.1420595397582</v>
       </c>
       <c r="H23" t="n">
-        <v>278.3004706722211</v>
+        <v>278.3004706722213</v>
       </c>
       <c r="I23" t="n">
-        <v>55.98930332975951</v>
+        <v>55.98930332975964</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>104.4293227275021</v>
+        <v>104.4293227275022</v>
       </c>
       <c r="T23" t="n">
-        <v>190.4854774862717</v>
+        <v>190.4854774862718</v>
       </c>
       <c r="U23" t="n">
-        <v>224.9909450967469</v>
+        <v>224.9909450967471</v>
       </c>
       <c r="V23" t="n">
-        <v>316.8402373905461</v>
+        <v>316.8402373905462</v>
       </c>
       <c r="W23" t="n">
-        <v>350.4237561298451</v>
+        <v>350.4237561298452</v>
       </c>
       <c r="X23" t="n">
-        <v>367.1380221263989</v>
+        <v>367.1380221263991</v>
       </c>
       <c r="Y23" t="n">
-        <v>367.4283645950528</v>
+        <v>367.4283645950529</v>
       </c>
     </row>
     <row r="24">
@@ -2475,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>129.8027652540257</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>59.64309870642214</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>136.0789454373741</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>118.61243891626</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>54.92104941501628</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>155.0289087125508</v>
+        <v>155.0289087125509</v>
       </c>
       <c r="T25" t="n">
-        <v>207.6543099067269</v>
+        <v>207.654309906727</v>
       </c>
       <c r="U25" t="n">
-        <v>250.471224252999</v>
+        <v>250.4712242529991</v>
       </c>
       <c r="V25" t="n">
-        <v>241.6479458835352</v>
+        <v>241.6479458835353</v>
       </c>
       <c r="W25" t="n">
-        <v>246.7800261198763</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>206.4614817925754</v>
+        <v>206.2132993375602</v>
       </c>
       <c r="Y25" t="n">
-        <v>192.9893998987849</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2554,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>390.4479524106874</v>
+        <v>376.6200261415066</v>
       </c>
       <c r="C26" t="n">
-        <v>390.3523293227054</v>
+        <v>376.5244030535246</v>
       </c>
       <c r="D26" t="n">
-        <v>384.7482751507129</v>
+        <v>370.9203488815321</v>
       </c>
       <c r="E26" t="n">
-        <v>394.5257978711151</v>
+        <v>380.6978716019343</v>
       </c>
       <c r="F26" t="n">
-        <v>401.1490924686921</v>
+        <v>387.3211661995114</v>
       </c>
       <c r="G26" t="n">
-        <v>388.9699858089389</v>
+        <v>375.1420595397582</v>
       </c>
       <c r="H26" t="n">
-        <v>292.128396941402</v>
+        <v>278.3004706722213</v>
       </c>
       <c r="I26" t="n">
-        <v>69.8172295989404</v>
+        <v>55.98930332975884</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>118.257248996683</v>
+        <v>104.4293227275022</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>190.4854774862718</v>
       </c>
       <c r="U26" t="n">
-        <v>235.7133810836673</v>
+        <v>224.9909450967471</v>
       </c>
       <c r="V26" t="n">
-        <v>330.6681636597269</v>
+        <v>316.8402373905462</v>
       </c>
       <c r="W26" t="n">
-        <v>364.2516823990259</v>
+        <v>350.4237561298452</v>
       </c>
       <c r="X26" t="n">
-        <v>380.9659483955798</v>
+        <v>367.1380221263991</v>
       </c>
       <c r="Y26" t="n">
-        <v>381.2562908642336</v>
+        <v>367.4283645950529</v>
       </c>
     </row>
     <row r="27">
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C28" t="n">
-        <v>153.7114232567435</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>142.2286827731619</v>
+        <v>33.12209635668033</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>33.8587954649506</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>149.9068717065549</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>132.4403651854408</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>99.51156997955994</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>68.74897568419718</v>
+        <v>54.92104941501642</v>
       </c>
       <c r="S28" t="n">
-        <v>168.8568349817317</v>
+        <v>155.0289087125509</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>207.654309906727</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>250.4712242529991</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>241.6479458835353</v>
       </c>
       <c r="W28" t="n">
-        <v>260.6079523890572</v>
+        <v>246.7800261198764</v>
       </c>
       <c r="X28" t="n">
-        <v>220.2894080617563</v>
+        <v>206.4614817925755</v>
       </c>
       <c r="Y28" t="n">
-        <v>206.8173261679658</v>
+        <v>192.989399898785</v>
       </c>
     </row>
     <row r="29">
@@ -2791,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>390.4479524106873</v>
+        <v>396.4986311895224</v>
       </c>
       <c r="C29" t="n">
-        <v>390.3523293227053</v>
+        <v>396.4030081015404</v>
       </c>
       <c r="D29" t="n">
-        <v>384.7482751507128</v>
+        <v>390.7989539295478</v>
       </c>
       <c r="E29" t="n">
-        <v>394.525797871115</v>
+        <v>400.5764766499501</v>
       </c>
       <c r="F29" t="n">
-        <v>401.1490924686921</v>
+        <v>407.1997712475271</v>
       </c>
       <c r="G29" t="n">
-        <v>388.9699858089389</v>
+        <v>395.0206645877739</v>
       </c>
       <c r="H29" t="n">
-        <v>292.1283969414019</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>69.81722959894034</v>
+        <v>75.86790837777539</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>124.307927775518</v>
       </c>
       <c r="T29" t="n">
-        <v>204.3134037554525</v>
+        <v>210.3640825342876</v>
       </c>
       <c r="U29" t="n">
-        <v>149.6572263248998</v>
+        <v>244.8695501447628</v>
       </c>
       <c r="V29" t="n">
-        <v>330.6681636597269</v>
+        <v>336.7188424385619</v>
       </c>
       <c r="W29" t="n">
-        <v>364.2516823990259</v>
+        <v>370.3023611778609</v>
       </c>
       <c r="X29" t="n">
-        <v>380.9659483955797</v>
+        <v>387.0166271744148</v>
       </c>
       <c r="Y29" t="n">
-        <v>381.2562908642336</v>
+        <v>387.3069696430686</v>
       </c>
     </row>
     <row r="30">
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>170.1516938729467</v>
+        <v>176.2023726517818</v>
       </c>
       <c r="C31" t="n">
-        <v>153.7114232567434</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>142.2286827731618</v>
+        <v>148.2793615519969</v>
       </c>
       <c r="E31" t="n">
-        <v>143.6306915232065</v>
+        <v>149.6813703020415</v>
       </c>
       <c r="F31" t="n">
-        <v>40.05541299314306</v>
+        <v>153.3644779521925</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.4910439642757</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>105.5622487583949</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>174.9075137605666</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>227.5329149547427</v>
       </c>
       <c r="U31" t="n">
-        <v>264.2991505221798</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>255.475872152716</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>260.6079523890571</v>
+        <v>266.6586311678922</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>48.85610841814489</v>
       </c>
       <c r="Y31" t="n">
-        <v>206.8173261679657</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3028,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>390.4479524106873</v>
+        <v>382.7192552168205</v>
       </c>
       <c r="C32" t="n">
-        <v>390.3523293227053</v>
+        <v>382.6236321288385</v>
       </c>
       <c r="D32" t="n">
-        <v>384.7482751507128</v>
+        <v>377.019577956846</v>
       </c>
       <c r="E32" t="n">
-        <v>394.525797871115</v>
+        <v>386.7971006772482</v>
       </c>
       <c r="F32" t="n">
-        <v>401.1490924686921</v>
+        <v>393.4203952748252</v>
       </c>
       <c r="G32" t="n">
-        <v>388.9699858089389</v>
+        <v>351.8413848904357</v>
       </c>
       <c r="H32" t="n">
-        <v>84.70950290368937</v>
+        <v>284.3996997475351</v>
       </c>
       <c r="I32" t="n">
-        <v>69.81722959894034</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>118.2572489966829</v>
+        <v>110.5285518028161</v>
       </c>
       <c r="T32" t="n">
-        <v>204.3134037554525</v>
+        <v>196.5847065615857</v>
       </c>
       <c r="U32" t="n">
-        <v>238.8188713659277</v>
+        <v>231.0901741720609</v>
       </c>
       <c r="V32" t="n">
-        <v>330.6681636597269</v>
+        <v>322.9394664658601</v>
       </c>
       <c r="W32" t="n">
-        <v>364.2516823990259</v>
+        <v>356.522985205159</v>
       </c>
       <c r="X32" t="n">
-        <v>380.9659483955797</v>
+        <v>373.2372512017129</v>
       </c>
       <c r="Y32" t="n">
-        <v>381.2562908642336</v>
+        <v>373.5275936703667</v>
       </c>
     </row>
     <row r="33">
@@ -3186,22 +3186,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>170.1516938729467</v>
+        <v>162.4229966790799</v>
       </c>
       <c r="C34" t="n">
-        <v>153.7114232567434</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>142.2286827731618</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>143.6306915232065</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>147.3137991733574</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>149.9068717065548</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>152.5546156233299</v>
       </c>
       <c r="T34" t="n">
-        <v>213.951218803376</v>
+        <v>213.7535389820408</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>256.570453328313</v>
       </c>
       <c r="V34" t="n">
-        <v>255.475872152716</v>
+        <v>247.7471749588492</v>
       </c>
       <c r="W34" t="n">
-        <v>260.6079523890571</v>
+        <v>252.8792551951903</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>212.5607108678894</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>199.0886289740988</v>
       </c>
     </row>
     <row r="35">
@@ -3265,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>390.4479524106873</v>
+        <v>382.7192552168205</v>
       </c>
       <c r="C35" t="n">
-        <v>390.3523293227053</v>
+        <v>382.6236321288385</v>
       </c>
       <c r="D35" t="n">
-        <v>384.7482751507128</v>
+        <v>285.5311418271362</v>
       </c>
       <c r="E35" t="n">
-        <v>394.525797871115</v>
+        <v>386.7971006772482</v>
       </c>
       <c r="F35" t="n">
-        <v>401.1490924686921</v>
+        <v>393.4203952748252</v>
       </c>
       <c r="G35" t="n">
-        <v>388.9699858089389</v>
+        <v>381.2412886150721</v>
       </c>
       <c r="H35" t="n">
-        <v>292.1283969414019</v>
+        <v>284.3996997475351</v>
       </c>
       <c r="I35" t="n">
-        <v>69.81722959894034</v>
+        <v>62.08853240507349</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>115.1517587144246</v>
+        <v>110.5285518028161</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>196.5847065615857</v>
       </c>
       <c r="U35" t="n">
-        <v>238.8188713659277</v>
+        <v>231.0901741720609</v>
       </c>
       <c r="V35" t="n">
-        <v>330.6681636597269</v>
+        <v>322.9394664658601</v>
       </c>
       <c r="W35" t="n">
-        <v>364.2516823990259</v>
+        <v>356.522985205159</v>
       </c>
       <c r="X35" t="n">
-        <v>380.9659483955797</v>
+        <v>373.2372512017129</v>
       </c>
       <c r="Y35" t="n">
-        <v>381.2562908642336</v>
+        <v>373.5275936703667</v>
       </c>
     </row>
     <row r="36">
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>162.4229966790799</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>18.05463004403477</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>134.499985579295</v>
       </c>
       <c r="E37" t="n">
-        <v>143.6306915232065</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>39.24095966129686</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>132.4403651854407</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>99.51156997955988</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,22 +3477,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.4822361759077</v>
+        <v>213.7535389820408</v>
       </c>
       <c r="U37" t="n">
-        <v>264.2991505221798</v>
+        <v>256.570453328313</v>
       </c>
       <c r="V37" t="n">
-        <v>255.475872152716</v>
+        <v>247.7471749588492</v>
       </c>
       <c r="W37" t="n">
-        <v>260.6079523890571</v>
+        <v>252.8792551951903</v>
       </c>
       <c r="X37" t="n">
-        <v>220.2894080617562</v>
+        <v>212.5607108678894</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>199.0886289740988</v>
       </c>
     </row>
     <row r="38">
@@ -3502,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>390.4479524106874</v>
+        <v>382.7192552168205</v>
       </c>
       <c r="C38" t="n">
-        <v>390.3523293227054</v>
+        <v>382.6236321288385</v>
       </c>
       <c r="D38" t="n">
-        <v>384.7482751507129</v>
+        <v>377.019577956846</v>
       </c>
       <c r="E38" t="n">
-        <v>394.5257978711151</v>
+        <v>386.7971006772482</v>
       </c>
       <c r="F38" t="n">
-        <v>401.1490924686922</v>
+        <v>393.4203952748252</v>
       </c>
       <c r="G38" t="n">
-        <v>388.969985808939</v>
+        <v>381.2412886150721</v>
       </c>
       <c r="H38" t="n">
-        <v>292.1283969414021</v>
+        <v>284.3996997475351</v>
       </c>
       <c r="I38" t="n">
-        <v>69.81722959894046</v>
+        <v>62.08853240507349</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>118.257248996683</v>
+        <v>110.5285518028161</v>
       </c>
       <c r="T38" t="n">
-        <v>204.3134037554527</v>
+        <v>105.0962704318761</v>
       </c>
       <c r="U38" t="n">
-        <v>238.8188713659279</v>
+        <v>231.0901741720609</v>
       </c>
       <c r="V38" t="n">
-        <v>330.668163659727</v>
+        <v>322.9394664658601</v>
       </c>
       <c r="W38" t="n">
-        <v>156.8327883613131</v>
+        <v>356.522985205159</v>
       </c>
       <c r="X38" t="n">
-        <v>380.9659483955799</v>
+        <v>373.2372512017129</v>
       </c>
       <c r="Y38" t="n">
-        <v>381.2562908642337</v>
+        <v>373.5275936703667</v>
       </c>
     </row>
     <row r="39">
@@ -3660,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>170.1516938729469</v>
+        <v>162.4229966790799</v>
       </c>
       <c r="C40" t="n">
-        <v>153.7114232567436</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>142.228682773162</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>149.9068717065549</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>68.74897568419723</v>
+        <v>61.02027849033026</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>91.53433713299953</v>
       </c>
       <c r="T40" t="n">
-        <v>221.4822361759078</v>
+        <v>213.7535389820408</v>
       </c>
       <c r="U40" t="n">
-        <v>264.29915052218</v>
+        <v>256.570453328313</v>
       </c>
       <c r="V40" t="n">
-        <v>255.4758721527162</v>
+        <v>247.7471749588492</v>
       </c>
       <c r="W40" t="n">
-        <v>4.155973338744547</v>
+        <v>252.8792551951903</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>212.5607108678894</v>
       </c>
       <c r="Y40" t="n">
-        <v>206.8173261679658</v>
+        <v>199.0886289740988</v>
       </c>
     </row>
     <row r="41">
@@ -3739,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>406.1189678678446</v>
+        <v>382.7192552168205</v>
       </c>
       <c r="C41" t="n">
-        <v>406.0233447798626</v>
+        <v>382.6236321288385</v>
       </c>
       <c r="D41" t="n">
-        <v>400.41929060787</v>
+        <v>377.019577956846</v>
       </c>
       <c r="E41" t="n">
-        <v>410.1968133282722</v>
+        <v>386.7971006772482</v>
       </c>
       <c r="F41" t="n">
-        <v>371.26328835217</v>
+        <v>393.4203952748252</v>
       </c>
       <c r="G41" t="n">
-        <v>404.6410012660961</v>
+        <v>381.2412886150721</v>
       </c>
       <c r="H41" t="n">
-        <v>307.7994123985592</v>
+        <v>284.3996997475351</v>
       </c>
       <c r="I41" t="n">
-        <v>85.48824505609757</v>
+        <v>62.08853240507349</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>133.9282644538401</v>
+        <v>110.5285518028161</v>
       </c>
       <c r="T41" t="n">
-        <v>219.9844192126098</v>
+        <v>196.5847065615857</v>
       </c>
       <c r="U41" t="n">
-        <v>254.489886823085</v>
+        <v>231.0901741720609</v>
       </c>
       <c r="V41" t="n">
-        <v>346.3391791168841</v>
+        <v>322.9394664658601</v>
       </c>
       <c r="W41" t="n">
-        <v>379.9226978561831</v>
+        <v>265.0345490754491</v>
       </c>
       <c r="X41" t="n">
-        <v>396.636963852737</v>
+        <v>373.2372512017129</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>373.5275936703667</v>
       </c>
     </row>
     <row r="42">
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>94.62205201833301</v>
+        <v>162.4229966790799</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>145.9827260628766</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>135.9019943293396</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>142.1781745126879</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>124.7116679915738</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>91.78287278569303</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>11.4583850682828</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>161.1281377878647</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>256.570453328313</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>252.8792551951903</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>212.5607108678894</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3976,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>406.1189678678446</v>
+        <v>391.673437981421</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>391.577814893439</v>
       </c>
       <c r="D44" t="n">
-        <v>400.41929060787</v>
+        <v>385.9737607214465</v>
       </c>
       <c r="E44" t="n">
-        <v>373.736032213064</v>
+        <v>395.7512834418487</v>
       </c>
       <c r="F44" t="n">
-        <v>416.8201079258493</v>
+        <v>402.3745780394258</v>
       </c>
       <c r="G44" t="n">
-        <v>404.6410012660961</v>
+        <v>390.1954713796726</v>
       </c>
       <c r="H44" t="n">
-        <v>307.7994123985592</v>
+        <v>293.3538825121357</v>
       </c>
       <c r="I44" t="n">
-        <v>85.48824505609757</v>
+        <v>50.78042689714269</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>133.9282644538401</v>
+        <v>119.4827345674166</v>
       </c>
       <c r="T44" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>254.489886823085</v>
+        <v>240.0443569366615</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>331.8936492304606</v>
       </c>
       <c r="W44" t="n">
-        <v>379.9226978561831</v>
+        <v>365.4771679697596</v>
       </c>
       <c r="X44" t="n">
-        <v>396.636963852737</v>
+        <v>382.1914339663135</v>
       </c>
       <c r="Y44" t="n">
-        <v>396.9273063213908</v>
+        <v>382.4817764349673</v>
       </c>
     </row>
     <row r="45">
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>43.73227063629162</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>151.1323572772885</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>39.91220221683711</v>
       </c>
       <c r="S46" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>222.7077217466414</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9701659793371</v>
+        <v>265.5246360929136</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>256.7013577234497</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>261.8334379597908</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>221.5148936324899</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>208.0428117386994</v>
       </c>
     </row>
   </sheetData>
@@ -4306,49 +4306,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>166.6022603407614</v>
+        <v>1542.752026609714</v>
       </c>
       <c r="C2" t="n">
-        <v>160.5180736944356</v>
+        <v>1132.627435922984</v>
       </c>
       <c r="D2" t="n">
-        <v>160.0945478279002</v>
+        <v>728.1635060160443</v>
       </c>
       <c r="E2" t="n">
-        <v>149.794736385201</v>
+        <v>467.4833777426783</v>
       </c>
       <c r="F2" t="n">
-        <v>132.8047283792926</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="G2" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H2" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I2" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J2" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K2" t="n">
-        <v>295.9505570973564</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="L2" t="n">
-        <v>733.4074053521598</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="M2" t="n">
-        <v>733.4074053521598</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="N2" t="n">
-        <v>733.4074053521598</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O2" t="n">
-        <v>1250.250340018485</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P2" t="n">
-        <v>1767.09327468481</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q2" t="n">
         <v>2088.254281480102</v>
@@ -4357,25 +4357,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S2" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T2" t="n">
-        <v>1866.047797426961</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U2" t="n">
-        <v>1608.987305686471</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="V2" t="n">
-        <v>1608.987305686471</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="W2" t="n">
-        <v>1225.22700482164</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="X2" t="n">
-        <v>824.5836069905924</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="Y2" t="n">
-        <v>423.6469339386825</v>
+        <v>1952.973206274203</v>
       </c>
     </row>
     <row r="3">
@@ -4409,25 +4409,25 @@
         <v>41.76508562960225</v>
       </c>
       <c r="J3" t="n">
-        <v>41.76508562960225</v>
+        <v>234.5779431922355</v>
       </c>
       <c r="K3" t="n">
-        <v>41.76508562960225</v>
+        <v>690.3841994575342</v>
       </c>
       <c r="L3" t="n">
-        <v>558.6080202959275</v>
+        <v>690.3841994575342</v>
       </c>
       <c r="M3" t="n">
-        <v>1075.450954962253</v>
+        <v>1207.22713412386</v>
       </c>
       <c r="N3" t="n">
-        <v>1075.450954962253</v>
+        <v>1724.070068790185</v>
       </c>
       <c r="O3" t="n">
-        <v>1592.293889628578</v>
+        <v>1724.070068790185</v>
       </c>
       <c r="P3" t="n">
-        <v>1708.850297433489</v>
+        <v>1724.070068790185</v>
       </c>
       <c r="Q3" t="n">
         <v>2058.694762117472</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>929.2073714114977</v>
+        <v>865.1454348405214</v>
       </c>
       <c r="C4" t="n">
-        <v>843.6595175967814</v>
+        <v>694.0520624022379</v>
       </c>
       <c r="D4" t="n">
-        <v>684.1648729196913</v>
+        <v>534.5574177251478</v>
       </c>
       <c r="E4" t="n">
-        <v>523.2540577880108</v>
+        <v>373.6466025934674</v>
       </c>
       <c r="F4" t="n">
-        <v>358.622931898602</v>
+        <v>209.0154767040586</v>
       </c>
       <c r="G4" t="n">
-        <v>191.3725408241454</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H4" t="n">
         <v>41.76508562960205</v>
@@ -4512,28 +4512,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R4" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S4" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T4" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U4" t="n">
-        <v>1203.093116471976</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V4" t="n">
-        <v>929.2073714114977</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="W4" t="n">
-        <v>929.2073714114977</v>
+        <v>1515.924701986118</v>
       </c>
       <c r="X4" t="n">
-        <v>929.2073714114977</v>
+        <v>1277.580839845801</v>
       </c>
       <c r="Y4" t="n">
-        <v>929.2073714114977</v>
+        <v>1052.845141234566</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>939.8889726802352</v>
+        <v>919.6088695046626</v>
       </c>
       <c r="C5" t="n">
-        <v>933.8047860339093</v>
+        <v>882.247119092317</v>
       </c>
       <c r="D5" t="n">
-        <v>933.3812601673739</v>
+        <v>477.7831891853775</v>
       </c>
       <c r="E5" t="n">
-        <v>923.0814487246746</v>
+        <v>467.4833777426783</v>
       </c>
       <c r="F5" t="n">
-        <v>761.4018671090519</v>
+        <v>46.45296569636579</v>
       </c>
       <c r="G5" t="n">
-        <v>352.673583001884</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H5" t="n">
         <v>41.76508562960205</v>
@@ -4570,22 +4570,22 @@
         <v>295.9505570973564</v>
       </c>
       <c r="K5" t="n">
-        <v>812.7934917636817</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L5" t="n">
-        <v>1014.011766457887</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="M5" t="n">
-        <v>1530.854701124212</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="N5" t="n">
-        <v>2047.697635790537</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="O5" t="n">
-        <v>2047.697635790537</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P5" t="n">
-        <v>2047.697635790537</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q5" t="n">
         <v>2047.697635790537</v>
@@ -4606,13 +4606,13 @@
         <v>1730.766722221062</v>
       </c>
       <c r="W5" t="n">
-        <v>1347.00642135623</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="X5" t="n">
-        <v>1347.00642135623</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="Y5" t="n">
-        <v>946.0697483043206</v>
+        <v>1329.830049169152</v>
       </c>
     </row>
     <row r="6">
@@ -4646,28 +4646,28 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J6" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K6" t="n">
-        <v>187.8810127971431</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L6" t="n">
-        <v>187.8810127971431</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M6" t="n">
-        <v>187.8810127971431</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="N6" t="n">
-        <v>704.7239474634683</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="O6" t="n">
-        <v>1221.566882129794</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="P6" t="n">
-        <v>1738.409816796119</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q6" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R6" t="n">
         <v>2088.254281480102</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>158.1111315252759</v>
+        <v>1131.098935930739</v>
       </c>
       <c r="C7" t="n">
-        <v>158.1111315252759</v>
+        <v>960.0055634924552</v>
       </c>
       <c r="D7" t="n">
-        <v>158.1111315252759</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="E7" t="n">
-        <v>158.1111315252759</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F7" t="n">
-        <v>158.1111315252759</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G7" t="n">
-        <v>158.1111315252759</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="H7" t="n">
         <v>158.1111315252759</v>
@@ -4749,28 +4749,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R7" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S7" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T7" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U7" t="n">
-        <v>1203.093116471976</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V7" t="n">
-        <v>929.2073714114977</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="W7" t="n">
-        <v>650.137706920372</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="X7" t="n">
-        <v>411.7938447800554</v>
+        <v>1543.534340936018</v>
       </c>
       <c r="Y7" t="n">
-        <v>345.8108379193203</v>
+        <v>1318.798642324783</v>
       </c>
     </row>
     <row r="8">
@@ -4783,49 +4783,49 @@
         <v>2082.073505856017</v>
       </c>
       <c r="C8" t="n">
-        <v>1776.679689856052</v>
+        <v>2001.236424545407</v>
       </c>
       <c r="D8" t="n">
-        <v>1372.215759949112</v>
+        <v>1596.772494638468</v>
       </c>
       <c r="E8" t="n">
-        <v>957.8755444660092</v>
+        <v>1182.432279155364</v>
       </c>
       <c r="F8" t="n">
-        <v>536.8451324196967</v>
+        <v>761.4018671090519</v>
       </c>
       <c r="G8" t="n">
-        <v>128.1168483125289</v>
+        <v>352.673583001884</v>
       </c>
       <c r="H8" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I8" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J8" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K8" t="n">
-        <v>295.9505570973564</v>
+        <v>537.7254774811266</v>
       </c>
       <c r="L8" t="n">
-        <v>812.7934917636817</v>
+        <v>537.7254774811266</v>
       </c>
       <c r="M8" t="n">
-        <v>1329.636426430007</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="N8" t="n">
-        <v>1846.479361096332</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O8" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P8" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q8" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R8" t="n">
         <v>2088.254281480102</v>
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C9" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D9" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E9" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F9" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G9" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H9" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I9" t="n">
         <v>41.76508562960205</v>
@@ -4886,22 +4886,22 @@
         <v>41.76508562960205</v>
       </c>
       <c r="K9" t="n">
-        <v>41.76508562960205</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="L9" t="n">
-        <v>558.6080202959273</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="M9" t="n">
-        <v>1054.568412147452</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="N9" t="n">
-        <v>1054.568412147452</v>
+        <v>1014.414276561226</v>
       </c>
       <c r="O9" t="n">
-        <v>1571.411346813777</v>
+        <v>1531.257211227551</v>
       </c>
       <c r="P9" t="n">
-        <v>2088.254281480102</v>
+        <v>1738.409816796118</v>
       </c>
       <c r="Q9" t="n">
         <v>2088.254281480102</v>
@@ -4919,16 +4919,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V9" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W9" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X9" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y9" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="10">
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1131.098935930739</v>
+        <v>533.263917876656</v>
       </c>
       <c r="C10" t="n">
-        <v>960.0055634924552</v>
+        <v>362.1705454383725</v>
       </c>
       <c r="D10" t="n">
-        <v>800.5109188153651</v>
+        <v>202.6759007612826</v>
       </c>
       <c r="E10" t="n">
-        <v>639.6001036836846</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F10" t="n">
-        <v>474.9689777942758</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G10" t="n">
-        <v>307.7185867198193</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H10" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I10" t="n">
         <v>41.76508562960205</v>
@@ -4986,28 +4986,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R10" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S10" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T10" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U10" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V10" t="n">
-        <v>1485.891263925851</v>
+        <v>1463.112849513378</v>
       </c>
       <c r="W10" t="n">
-        <v>1485.891263925851</v>
+        <v>1184.043185022252</v>
       </c>
       <c r="X10" t="n">
-        <v>1485.891263925851</v>
+        <v>945.6993228819357</v>
       </c>
       <c r="Y10" t="n">
-        <v>1318.798642324783</v>
+        <v>720.9636242707004</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2340.613014133291</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C11" t="n">
-        <v>1960.285334281246</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D11" t="n">
-        <v>1585.618315208991</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E11" t="n">
-        <v>1201.075010560573</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F11" t="n">
-        <v>809.841509348945</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G11" t="n">
-        <v>430.910136076462</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H11" t="n">
-        <v>149.7985495388648</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I11" t="n">
         <v>93.2436976906228</v>
@@ -5068,25 +5068,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S11" t="n">
-        <v>4556.700720159925</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T11" t="n">
-        <v>4364.291146941469</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U11" t="n">
-        <v>4137.027566035664</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V11" t="n">
-        <v>3816.98692220683</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W11" t="n">
-        <v>3463.023532176683</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X11" t="n">
-        <v>3092.17704518032</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y11" t="n">
-        <v>2721.037282963096</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="12">
@@ -5123,25 +5123,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K12" t="n">
-        <v>549.0499539559215</v>
+        <v>183.4222192247803</v>
       </c>
       <c r="L12" t="n">
-        <v>1210.13812587521</v>
+        <v>844.5103911440685</v>
       </c>
       <c r="M12" t="n">
-        <v>1210.13812587521</v>
+        <v>844.5103911440685</v>
       </c>
       <c r="N12" t="n">
-        <v>1210.13812587521</v>
+        <v>844.5103911440685</v>
       </c>
       <c r="O12" t="n">
-        <v>1210.13812587521</v>
+        <v>1548.467481689963</v>
       </c>
       <c r="P12" t="n">
-        <v>1771.84401836374</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="Q12" t="n">
-        <v>2121.688483047723</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R12" t="n">
         <v>2139.732893541123</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>620.0619485594034</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C13" t="n">
-        <v>611.3193604296539</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D13" t="n">
-        <v>481.6216265872488</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E13" t="n">
-        <v>350.5077222902531</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F13" t="n">
-        <v>350.5077222902531</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G13" t="n">
-        <v>213.0542420504813</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H13" t="n">
         <v>93.2436976906228</v>
@@ -5199,52 +5199,52 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J13" t="n">
-        <v>136.5301994049079</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K13" t="n">
-        <v>320.2864794362205</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L13" t="n">
-        <v>609.3875320253558</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M13" t="n">
-        <v>927.8555407749236</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N13" t="n">
-        <v>1237.898275478248</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O13" t="n">
-        <v>1526.662838113797</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P13" t="n">
-        <v>1761.542230672484</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q13" t="n">
-        <v>1856.27421278407</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R13" t="n">
-        <v>1800.798405294154</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S13" t="n">
-        <v>1644.203548008749</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T13" t="n">
-        <v>1434.451719820136</v>
+        <v>1392.076815447654</v>
       </c>
       <c r="U13" t="n">
-        <v>1181.450483200945</v>
+        <v>1109.278667993779</v>
       </c>
       <c r="V13" t="n">
-        <v>1181.450483200945</v>
+        <v>835.3929229333004</v>
       </c>
       <c r="W13" t="n">
-        <v>1181.450483200945</v>
+        <v>556.3232584421747</v>
       </c>
       <c r="X13" t="n">
-        <v>972.9035318953134</v>
+        <v>317.9793963018581</v>
       </c>
       <c r="Y13" t="n">
-        <v>777.964744118763</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2340.613014133291</v>
+        <v>2335.229952204227</v>
       </c>
       <c r="C14" t="n">
-        <v>1960.285334281246</v>
+        <v>1954.229389611049</v>
       </c>
       <c r="D14" t="n">
-        <v>1585.618315208991</v>
+        <v>1578.889487797662</v>
       </c>
       <c r="E14" t="n">
-        <v>1201.075010560573</v>
+        <v>1193.67330040811</v>
       </c>
       <c r="F14" t="n">
-        <v>809.8415093489451</v>
+        <v>801.7669164553497</v>
       </c>
       <c r="G14" t="n">
-        <v>430.9101360764621</v>
+        <v>422.1626604417337</v>
       </c>
       <c r="H14" t="n">
-        <v>149.7985495388648</v>
+        <v>140.3781911630036</v>
       </c>
       <c r="I14" t="n">
         <v>93.2436976906228</v>
@@ -5305,25 +5305,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S14" t="n">
-        <v>4556.700720159925</v>
+        <v>4556.027837418793</v>
       </c>
       <c r="T14" t="n">
-        <v>4364.291146941469</v>
+        <v>4362.945381459203</v>
       </c>
       <c r="U14" t="n">
-        <v>4137.027566035665</v>
+        <v>4135.008917812265</v>
       </c>
       <c r="V14" t="n">
-        <v>3816.98692220683</v>
+        <v>3814.295391242298</v>
       </c>
       <c r="W14" t="n">
-        <v>3463.023532176683</v>
+        <v>3459.659118471018</v>
       </c>
       <c r="X14" t="n">
-        <v>3092.17704518032</v>
+        <v>3088.139748733523</v>
       </c>
       <c r="Y14" t="n">
-        <v>2721.037282963096</v>
+        <v>2716.327103775165</v>
       </c>
     </row>
     <row r="15">
@@ -5357,25 +5357,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J15" t="n">
-        <v>93.2436976906228</v>
+        <v>111.2881081840224</v>
       </c>
       <c r="K15" t="n">
-        <v>93.2436976906228</v>
+        <v>567.0943644493211</v>
       </c>
       <c r="L15" t="n">
-        <v>93.2436976906228</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M15" t="n">
-        <v>936.2207783851894</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N15" t="n">
-        <v>1809.878870496807</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O15" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P15" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q15" t="n">
         <v>2139.732893541123</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>593.0802003456348</v>
+        <v>487.3605855683759</v>
       </c>
       <c r="C16" t="n">
-        <v>451.7837387420361</v>
+        <v>487.3605855683759</v>
       </c>
       <c r="D16" t="n">
-        <v>451.7837387420361</v>
+        <v>487.3605855683759</v>
       </c>
       <c r="E16" t="n">
-        <v>320.6698344450404</v>
+        <v>487.3605855683759</v>
       </c>
       <c r="F16" t="n">
-        <v>320.6698344450404</v>
+        <v>351.8534877725191</v>
       </c>
       <c r="G16" t="n">
-        <v>183.2163542052685</v>
+        <v>213.7271247916143</v>
       </c>
       <c r="H16" t="n">
         <v>93.2436976906228</v>
@@ -5436,52 +5436,52 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J16" t="n">
-        <v>136.5301994049079</v>
+        <v>135.8707070303235</v>
       </c>
       <c r="K16" t="n">
-        <v>320.2864794362204</v>
+        <v>318.9674946870516</v>
       </c>
       <c r="L16" t="n">
-        <v>609.3875320253555</v>
+        <v>607.4090549016023</v>
       </c>
       <c r="M16" t="n">
-        <v>927.8555407749234</v>
+        <v>925.2175712765858</v>
       </c>
       <c r="N16" t="n">
-        <v>1237.898275478248</v>
+        <v>1234.600813605326</v>
       </c>
       <c r="O16" t="n">
-        <v>1526.662838113797</v>
+        <v>1522.705883866291</v>
       </c>
       <c r="P16" t="n">
-        <v>1761.542230672484</v>
+        <v>1756.925784050393</v>
       </c>
       <c r="Q16" t="n">
-        <v>1856.27421278407</v>
+        <v>1850.998273787394</v>
       </c>
       <c r="R16" t="n">
-        <v>1856.27421278407</v>
+        <v>1850.998273787394</v>
       </c>
       <c r="S16" t="n">
-        <v>1699.679355498665</v>
+        <v>1850.998273787394</v>
       </c>
       <c r="T16" t="n">
-        <v>1489.927527310051</v>
+        <v>1640.573562857648</v>
       </c>
       <c r="U16" t="n">
-        <v>1489.927527310051</v>
+        <v>1386.899443497324</v>
       </c>
       <c r="V16" t="n">
-        <v>1245.838693084258</v>
+        <v>1142.137726530398</v>
       </c>
       <c r="W16" t="n">
-        <v>996.5659394278172</v>
+        <v>892.1920901328242</v>
       </c>
       <c r="X16" t="n">
-        <v>788.0189881221853</v>
+        <v>682.9722560860594</v>
       </c>
       <c r="Y16" t="n">
-        <v>593.0802003456348</v>
+        <v>487.3605855683759</v>
       </c>
     </row>
     <row r="17">
@@ -5518,7 +5518,7 @@
         <v>347.4291691583771</v>
       </c>
       <c r="K17" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L17" t="n">
         <v>1598.180070079655</v>
@@ -5530,7 +5530,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O17" t="n">
-        <v>3771.310534127131</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P17" t="n">
         <v>4300.467232046283</v>
@@ -5594,22 +5594,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J18" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K18" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L18" t="n">
-        <v>754.331869609911</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M18" t="n">
-        <v>754.331869609911</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="N18" t="n">
-        <v>874.0699105066985</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O18" t="n">
-        <v>1578.027001052593</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P18" t="n">
         <v>2139.732893541123</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>491.5088160697956</v>
+        <v>182.1761681670841</v>
       </c>
       <c r="C19" t="n">
-        <v>491.5088160697956</v>
+        <v>182.1761681670841</v>
       </c>
       <c r="D19" t="n">
-        <v>361.8110822273903</v>
+        <v>182.1761681670841</v>
       </c>
       <c r="E19" t="n">
-        <v>230.6971779303946</v>
+        <v>182.1761681670841</v>
       </c>
       <c r="F19" t="n">
-        <v>230.6971779303946</v>
+        <v>182.1761681670841</v>
       </c>
       <c r="G19" t="n">
         <v>93.2436976906228</v>
@@ -5703,22 +5703,22 @@
         <v>1699.679355498665</v>
       </c>
       <c r="T19" t="n">
-        <v>1699.679355498665</v>
+        <v>1489.927527310051</v>
       </c>
       <c r="U19" t="n">
-        <v>1546.258938593572</v>
+        <v>1236.92629069086</v>
       </c>
       <c r="V19" t="n">
-        <v>1302.170104367779</v>
+        <v>992.8374564650669</v>
       </c>
       <c r="W19" t="n">
-        <v>1052.897350711338</v>
+        <v>743.5647028086261</v>
       </c>
       <c r="X19" t="n">
-        <v>844.3503994057057</v>
+        <v>535.0177515029942</v>
       </c>
       <c r="Y19" t="n">
-        <v>649.4116116291552</v>
+        <v>340.0789637264437</v>
       </c>
     </row>
     <row r="20">
@@ -5731,31 +5731,31 @@
         <v>2340.613014133291</v>
       </c>
       <c r="C20" t="n">
-        <v>1960.285334281246</v>
+        <v>1960.285334281245</v>
       </c>
       <c r="D20" t="n">
         <v>1585.618315208991</v>
       </c>
       <c r="E20" t="n">
-        <v>1201.075010560573</v>
+        <v>1201.075010560572</v>
       </c>
       <c r="F20" t="n">
-        <v>809.8415093489454</v>
+        <v>809.8415093489443</v>
       </c>
       <c r="G20" t="n">
-        <v>430.9101360764623</v>
+        <v>430.9101360764613</v>
       </c>
       <c r="H20" t="n">
-        <v>149.7985495388648</v>
+        <v>149.7985495388641</v>
       </c>
       <c r="I20" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J20" t="n">
-        <v>347.4291691583776</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K20" t="n">
-        <v>885.588670267417</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L20" t="n">
         <v>1598.180070079655</v>
@@ -5767,7 +5767,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O20" t="n">
-        <v>3771.310534127131</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P20" t="n">
         <v>4300.467232046283</v>
@@ -5782,13 +5782,13 @@
         <v>4556.700720159925</v>
       </c>
       <c r="T20" t="n">
-        <v>4364.291146941468</v>
+        <v>4364.291146941469</v>
       </c>
       <c r="U20" t="n">
-        <v>4137.027566035664</v>
+        <v>4137.027566035665</v>
       </c>
       <c r="V20" t="n">
-        <v>3816.986922206829</v>
+        <v>3816.98692220683</v>
       </c>
       <c r="W20" t="n">
         <v>3463.023532176683</v>
@@ -5831,28 +5831,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J21" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K21" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L21" t="n">
-        <v>93.2436976906228</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M21" t="n">
-        <v>562.1177108836107</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="N21" t="n">
-        <v>1435.775802995229</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="O21" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="P21" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="Q21" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R21" t="n">
         <v>2139.732893541123</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>887.4500370879769</v>
+        <v>182.1761681670841</v>
       </c>
       <c r="C22" t="n">
-        <v>746.1535754843782</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D22" t="n">
-        <v>616.4558416419729</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E22" t="n">
-        <v>485.3419373449772</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F22" t="n">
-        <v>350.5077222902532</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G22" t="n">
-        <v>213.0542420504814</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H22" t="n">
         <v>93.2436976906228</v>
@@ -5934,28 +5934,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R22" t="n">
-        <v>1800.798405294154</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S22" t="n">
-        <v>1644.203548008749</v>
+        <v>1699.679355498665</v>
       </c>
       <c r="T22" t="n">
-        <v>1434.451719820136</v>
+        <v>1489.927527310051</v>
       </c>
       <c r="U22" t="n">
-        <v>1181.450483200945</v>
+        <v>1236.92629069086</v>
       </c>
       <c r="V22" t="n">
-        <v>1095.996988393609</v>
+        <v>992.8374564650669</v>
       </c>
       <c r="W22" t="n">
-        <v>1095.996988393609</v>
+        <v>743.5647028086261</v>
       </c>
       <c r="X22" t="n">
-        <v>887.4500370879769</v>
+        <v>535.0177515029942</v>
       </c>
       <c r="Y22" t="n">
-        <v>887.4500370879769</v>
+        <v>340.0789637264437</v>
       </c>
     </row>
     <row r="23">
@@ -5968,31 +5968,31 @@
         <v>2340.613014133291</v>
       </c>
       <c r="C23" t="n">
-        <v>1960.285334281245</v>
+        <v>1960.285334281246</v>
       </c>
       <c r="D23" t="n">
         <v>1585.618315208991</v>
       </c>
       <c r="E23" t="n">
-        <v>1201.075010560572</v>
+        <v>1201.075010560573</v>
       </c>
       <c r="F23" t="n">
-        <v>809.8415093489448</v>
+        <v>809.8415093489452</v>
       </c>
       <c r="G23" t="n">
-        <v>430.9101360764618</v>
+        <v>430.9101360764621</v>
       </c>
       <c r="H23" t="n">
-        <v>149.7985495388647</v>
+        <v>149.7985495388648</v>
       </c>
       <c r="I23" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J23" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583772</v>
       </c>
       <c r="K23" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L23" t="n">
         <v>1598.180070079655</v>
@@ -6025,16 +6025,16 @@
         <v>4137.027566035665</v>
       </c>
       <c r="V23" t="n">
-        <v>3816.98692220683</v>
+        <v>3816.986922206831</v>
       </c>
       <c r="W23" t="n">
-        <v>3463.023532176683</v>
+        <v>3463.023532176684</v>
       </c>
       <c r="X23" t="n">
-        <v>3092.17704518032</v>
+        <v>3092.177045180321</v>
       </c>
       <c r="Y23" t="n">
-        <v>2721.037282963095</v>
+        <v>2721.037282963096</v>
       </c>
     </row>
     <row r="24">
@@ -6068,28 +6068,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J24" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K24" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L24" t="n">
-        <v>754.331869609911</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M24" t="n">
-        <v>1597.308950304478</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="N24" t="n">
-        <v>1597.308950304478</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="O24" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="P24" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q24" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R24" t="n">
         <v>2139.732893541123</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>284.6031562365297</v>
+        <v>626.6383989485759</v>
       </c>
       <c r="C25" t="n">
-        <v>284.6031562365297</v>
+        <v>485.3419373449772</v>
       </c>
       <c r="D25" t="n">
-        <v>284.6031562365297</v>
+        <v>485.3419373449772</v>
       </c>
       <c r="E25" t="n">
-        <v>153.4892519395341</v>
+        <v>485.3419373449772</v>
       </c>
       <c r="F25" t="n">
-        <v>93.2436976906228</v>
+        <v>350.5077222902532</v>
       </c>
       <c r="G25" t="n">
-        <v>93.2436976906228</v>
+        <v>213.0542420504814</v>
       </c>
       <c r="H25" t="n">
         <v>93.2436976906228</v>
@@ -6147,22 +6147,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J25" t="n">
-        <v>136.530199404908</v>
+        <v>136.5301994049079</v>
       </c>
       <c r="K25" t="n">
-        <v>320.2864794362206</v>
+        <v>320.2864794362204</v>
       </c>
       <c r="L25" t="n">
-        <v>609.3875320253559</v>
+        <v>609.3875320253555</v>
       </c>
       <c r="M25" t="n">
-        <v>927.8555407749238</v>
+        <v>927.8555407749234</v>
       </c>
       <c r="N25" t="n">
-        <v>1237.898275478249</v>
+        <v>1237.898275478248</v>
       </c>
       <c r="O25" t="n">
-        <v>1526.662838113798</v>
+        <v>1526.662838113797</v>
       </c>
       <c r="P25" t="n">
         <v>1761.542230672484</v>
@@ -6171,28 +6171,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R25" t="n">
-        <v>1800.798405294154</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S25" t="n">
-        <v>1644.20354800875</v>
+        <v>1699.679355498665</v>
       </c>
       <c r="T25" t="n">
-        <v>1434.451719820137</v>
+        <v>1489.927527310051</v>
       </c>
       <c r="U25" t="n">
-        <v>1181.450483200946</v>
+        <v>1236.92629069086</v>
       </c>
       <c r="V25" t="n">
-        <v>937.3616489751525</v>
+        <v>992.8374564650669</v>
       </c>
       <c r="W25" t="n">
-        <v>688.0888953187118</v>
+        <v>992.8374564650669</v>
       </c>
       <c r="X25" t="n">
-        <v>479.5419440130801</v>
+        <v>784.5411945079354</v>
       </c>
       <c r="Y25" t="n">
-        <v>284.6031562365297</v>
+        <v>784.5411945079354</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2438.386230178004</v>
+        <v>2340.613014133291</v>
       </c>
       <c r="C26" t="n">
-        <v>2044.090948033857</v>
+        <v>1960.285334281245</v>
       </c>
       <c r="D26" t="n">
-        <v>1655.4563266695</v>
+        <v>1585.618315208991</v>
       </c>
       <c r="E26" t="n">
-        <v>1256.94541972898</v>
+        <v>1201.075010560572</v>
       </c>
       <c r="F26" t="n">
-        <v>851.7443162252505</v>
+        <v>809.8415093489443</v>
       </c>
       <c r="G26" t="n">
-        <v>458.8453406606657</v>
+        <v>430.9101360764613</v>
       </c>
       <c r="H26" t="n">
-        <v>163.7661518309666</v>
+        <v>149.7985495388641</v>
       </c>
       <c r="I26" t="n">
         <v>93.2436976906228</v>
@@ -6253,25 +6253,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S26" t="n">
-        <v>4542.733117867823</v>
+        <v>4556.700720159925</v>
       </c>
       <c r="T26" t="n">
-        <v>4542.733117867823</v>
+        <v>4364.291146941469</v>
       </c>
       <c r="U26" t="n">
-        <v>4304.638793540887</v>
+        <v>4137.027566035665</v>
       </c>
       <c r="V26" t="n">
-        <v>3970.63054741995</v>
+        <v>3816.98692220683</v>
       </c>
       <c r="W26" t="n">
-        <v>3602.699555097702</v>
+        <v>3463.023532176683</v>
       </c>
       <c r="X26" t="n">
-        <v>3217.885465809237</v>
+        <v>3092.17704518032</v>
       </c>
       <c r="Y26" t="n">
-        <v>2832.77810129991</v>
+        <v>2721.037282963095</v>
       </c>
     </row>
     <row r="27">
@@ -6305,28 +6305,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J27" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K27" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L27" t="n">
-        <v>754.331869609911</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M27" t="n">
-        <v>1597.308950304478</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="N27" t="n">
-        <v>2139.732893541123</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="O27" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P27" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q27" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R27" t="n">
         <v>2139.732893541123</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>812.0898677577052</v>
+        <v>126.7003606771686</v>
       </c>
       <c r="C28" t="n">
-        <v>656.8258038620047</v>
+        <v>126.7003606771686</v>
       </c>
       <c r="D28" t="n">
-        <v>513.1604677274977</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E28" t="n">
-        <v>513.1604677274977</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F28" t="n">
-        <v>478.9596642275476</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G28" t="n">
-        <v>327.538581695674</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H28" t="n">
-        <v>193.7604350437136</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I28" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J28" t="n">
-        <v>122.8405523984189</v>
+        <v>136.5301994049079</v>
       </c>
       <c r="K28" t="n">
-        <v>292.9071854232425</v>
+        <v>320.2864794362204</v>
       </c>
       <c r="L28" t="n">
-        <v>568.3185910058887</v>
+        <v>609.3875320253555</v>
       </c>
       <c r="M28" t="n">
-        <v>873.0969527489676</v>
+        <v>927.8555407749234</v>
       </c>
       <c r="N28" t="n">
-        <v>1169.450040445804</v>
+        <v>1237.898275478248</v>
       </c>
       <c r="O28" t="n">
-        <v>1444.524956074863</v>
+        <v>1526.662838113797</v>
       </c>
       <c r="P28" t="n">
-        <v>1665.714701627061</v>
+        <v>1761.542230672484</v>
       </c>
       <c r="Q28" t="n">
-        <v>1746.757036732158</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="R28" t="n">
-        <v>1677.313626950141</v>
+        <v>1800.798405294154</v>
       </c>
       <c r="S28" t="n">
-        <v>1506.751167372634</v>
+        <v>1644.203548008749</v>
       </c>
       <c r="T28" t="n">
-        <v>1506.751167372634</v>
+        <v>1434.451719820136</v>
       </c>
       <c r="U28" t="n">
-        <v>1506.751167372634</v>
+        <v>1181.450483200945</v>
       </c>
       <c r="V28" t="n">
-        <v>1506.751167372634</v>
+        <v>937.3616489751514</v>
       </c>
       <c r="W28" t="n">
-        <v>1243.510811424091</v>
+        <v>688.0888953187106</v>
       </c>
       <c r="X28" t="n">
-        <v>1020.996257826357</v>
+        <v>479.5419440130787</v>
       </c>
       <c r="Y28" t="n">
-        <v>812.0898677577052</v>
+        <v>284.6031562365282</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2438.386230178003</v>
+        <v>2179.977821826092</v>
       </c>
       <c r="C29" t="n">
-        <v>2044.090948033856</v>
+        <v>1779.570742935647</v>
       </c>
       <c r="D29" t="n">
-        <v>1655.4563266695</v>
+        <v>1384.824324824993</v>
       </c>
       <c r="E29" t="n">
-        <v>1256.94541972898</v>
+        <v>980.2016211381748</v>
       </c>
       <c r="F29" t="n">
-        <v>851.7443162252503</v>
+        <v>568.8887208881474</v>
       </c>
       <c r="G29" t="n">
-        <v>458.8453406606656</v>
+        <v>169.8779485772646</v>
       </c>
       <c r="H29" t="n">
-        <v>163.7661518309666</v>
+        <v>169.8779485772646</v>
       </c>
       <c r="I29" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J29" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583776</v>
       </c>
       <c r="K29" t="n">
-        <v>885.5886702674165</v>
+        <v>885.588670267417</v>
       </c>
       <c r="L29" t="n">
         <v>1598.180070079655</v>
@@ -6478,7 +6478,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O29" t="n">
-        <v>3771.310534127132</v>
+        <v>3771.310534127131</v>
       </c>
       <c r="P29" t="n">
         <v>4300.467232046283</v>
@@ -6490,25 +6490,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S29" t="n">
-        <v>4662.18488453114</v>
+        <v>4536.621321121525</v>
       </c>
       <c r="T29" t="n">
-        <v>4455.807709020582</v>
+        <v>4324.132348864669</v>
       </c>
       <c r="U29" t="n">
-        <v>4304.638793540885</v>
+        <v>4076.789368920464</v>
       </c>
       <c r="V29" t="n">
-        <v>3970.630547419949</v>
+        <v>3736.66932605323</v>
       </c>
       <c r="W29" t="n">
-        <v>3602.699555097701</v>
+        <v>3362.626536984684</v>
       </c>
       <c r="X29" t="n">
-        <v>3217.885465809236</v>
+        <v>2971.700650949922</v>
       </c>
       <c r="Y29" t="n">
-        <v>2832.778101299909</v>
+        <v>2580.481489694296</v>
       </c>
     </row>
     <row r="30">
@@ -6542,22 +6542,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J30" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K30" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L30" t="n">
-        <v>93.2436976906228</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M30" t="n">
-        <v>562.1177108836107</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="N30" t="n">
-        <v>1435.775802995229</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="O30" t="n">
-        <v>2139.732893541123</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P30" t="n">
         <v>2139.732893541123</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3493.142465233296</v>
+        <v>795.6462254975941</v>
       </c>
       <c r="C31" t="n">
-        <v>3337.878401337595</v>
+        <v>795.6462254975941</v>
       </c>
       <c r="D31" t="n">
-        <v>3194.213065203088</v>
+        <v>645.8690926167891</v>
       </c>
       <c r="E31" t="n">
-        <v>3049.131558613991</v>
+        <v>494.6757892813936</v>
       </c>
       <c r="F31" t="n">
-        <v>3008.671545489604</v>
+        <v>339.7621751882699</v>
       </c>
       <c r="G31" t="n">
-        <v>3008.671545489604</v>
+        <v>339.7621751882699</v>
       </c>
       <c r="H31" t="n">
-        <v>3008.671545489604</v>
+        <v>199.8722317900116</v>
       </c>
       <c r="I31" t="n">
-        <v>3008.671545489604</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J31" t="n">
-        <v>3038.2684001974</v>
+        <v>116.8503804073723</v>
       </c>
       <c r="K31" t="n">
-        <v>3208.335033222224</v>
+        <v>280.9268414411492</v>
       </c>
       <c r="L31" t="n">
-        <v>3483.74643880487</v>
+        <v>550.3480750327487</v>
       </c>
       <c r="M31" t="n">
-        <v>3788.524800547949</v>
+        <v>849.1362647847809</v>
       </c>
       <c r="N31" t="n">
-        <v>4084.877888244785</v>
+        <v>1139.49918049057</v>
       </c>
       <c r="O31" t="n">
-        <v>4359.952803873844</v>
+        <v>1408.583924128583</v>
       </c>
       <c r="P31" t="n">
-        <v>4581.142549426043</v>
+        <v>1623.783497689735</v>
       </c>
       <c r="Q31" t="n">
-        <v>4662.18488453114</v>
+        <v>1698.835660803784</v>
       </c>
       <c r="R31" t="n">
-        <v>4662.18488453114</v>
+        <v>1698.835660803784</v>
       </c>
       <c r="S31" t="n">
-        <v>4662.18488453114</v>
+        <v>1522.16140447998</v>
       </c>
       <c r="T31" t="n">
-        <v>4662.18488453114</v>
+        <v>1292.330177252967</v>
       </c>
       <c r="U31" t="n">
-        <v>4395.216045619847</v>
+        <v>1292.330177252967</v>
       </c>
       <c r="V31" t="n">
-        <v>4137.159609101952</v>
+        <v>1292.330177252967</v>
       </c>
       <c r="W31" t="n">
-        <v>3873.919253153409</v>
+        <v>1022.978024558126</v>
       </c>
       <c r="X31" t="n">
-        <v>3873.919253153409</v>
+        <v>973.6284200953535</v>
       </c>
       <c r="Y31" t="n">
-        <v>3665.012863084757</v>
+        <v>973.6284200953535</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2228.872195796475</v>
+        <v>2291.326314534793</v>
       </c>
       <c r="C32" t="n">
-        <v>1834.576913652329</v>
+        <v>1904.837797232936</v>
       </c>
       <c r="D32" t="n">
-        <v>1445.942292287972</v>
+        <v>1524.00994071087</v>
       </c>
       <c r="E32" t="n">
-        <v>1047.431385347452</v>
+        <v>1133.305798612639</v>
       </c>
       <c r="F32" t="n">
-        <v>642.2302818437224</v>
+        <v>735.9114599511995</v>
       </c>
       <c r="G32" t="n">
-        <v>249.3313062791377</v>
+        <v>380.5161216780321</v>
       </c>
       <c r="H32" t="n">
-        <v>163.7661518309666</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I32" t="n">
         <v>93.2436976906228</v>
@@ -6727,25 +6727,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S32" t="n">
-        <v>4542.733117867823</v>
+        <v>4550.539882710113</v>
       </c>
       <c r="T32" t="n">
-        <v>4336.355942357265</v>
+        <v>4351.969472041845</v>
       </c>
       <c r="U32" t="n">
-        <v>4095.124759159358</v>
+        <v>4118.545053686227</v>
       </c>
       <c r="V32" t="n">
-        <v>3761.116513038422</v>
+        <v>3792.343572407581</v>
       </c>
       <c r="W32" t="n">
-        <v>3393.185520716173</v>
+        <v>3432.219344927622</v>
       </c>
       <c r="X32" t="n">
-        <v>3008.371431427709</v>
+        <v>3055.212020481447</v>
       </c>
       <c r="Y32" t="n">
-        <v>2623.264066918382</v>
+        <v>2677.91142081441</v>
       </c>
     </row>
     <row r="33">
@@ -6779,19 +6779,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J33" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K33" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L33" t="n">
-        <v>93.2436976906228</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M33" t="n">
-        <v>936.2207783851894</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="N33" t="n">
-        <v>1435.775802995229</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O33" t="n">
         <v>2139.732893541123</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>837.4775041886267</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C34" t="n">
-        <v>682.2134402929263</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D34" t="n">
-        <v>538.5481041584194</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E34" t="n">
-        <v>393.4665975693219</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F34" t="n">
-        <v>244.6647802224963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G34" t="n">
         <v>93.2436976906228</v>
@@ -6858,52 +6858,52 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J34" t="n">
-        <v>122.840552398419</v>
+        <v>130.4919626203472</v>
       </c>
       <c r="K34" t="n">
-        <v>292.9071854232426</v>
+        <v>308.210005867099</v>
       </c>
       <c r="L34" t="n">
-        <v>568.3185910058888</v>
+        <v>591.2728216716733</v>
       </c>
       <c r="M34" t="n">
-        <v>873.0969527489677</v>
+        <v>903.7025936366804</v>
       </c>
       <c r="N34" t="n">
-        <v>1169.450040445804</v>
+        <v>1207.707091555445</v>
       </c>
       <c r="O34" t="n">
-        <v>1444.524956074863</v>
+        <v>1490.433417406432</v>
       </c>
       <c r="P34" t="n">
-        <v>1665.714701627061</v>
+        <v>1719.274573180559</v>
       </c>
       <c r="Q34" t="n">
-        <v>1746.757036732158</v>
+        <v>1807.968318507583</v>
       </c>
       <c r="R34" t="n">
-        <v>1746.757036732158</v>
+        <v>1807.968318507583</v>
       </c>
       <c r="S34" t="n">
-        <v>1746.757036732158</v>
+        <v>1653.872747170887</v>
       </c>
       <c r="T34" t="n">
-        <v>1530.644694506526</v>
+        <v>1437.960081532462</v>
       </c>
       <c r="U34" t="n">
-        <v>1530.644694506526</v>
+        <v>1178.798007463459</v>
       </c>
       <c r="V34" t="n">
-        <v>1272.588257988631</v>
+        <v>928.5483357878534</v>
       </c>
       <c r="W34" t="n">
-        <v>1009.347902040088</v>
+        <v>673.1147446816005</v>
       </c>
       <c r="X34" t="n">
-        <v>1009.347902040088</v>
+        <v>458.4069559261568</v>
       </c>
       <c r="Y34" t="n">
-        <v>1009.347902040088</v>
+        <v>257.3073306997944</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2438.386230178003</v>
+        <v>2291.326314534793</v>
       </c>
       <c r="C35" t="n">
-        <v>2044.090948033856</v>
+        <v>1904.837797232936</v>
       </c>
       <c r="D35" t="n">
-        <v>1655.4563266695</v>
+        <v>1616.422502458051</v>
       </c>
       <c r="E35" t="n">
-        <v>1256.94541972898</v>
+        <v>1225.718360359821</v>
       </c>
       <c r="F35" t="n">
-        <v>851.7443162252503</v>
+        <v>828.3240216983811</v>
       </c>
       <c r="G35" t="n">
-        <v>458.8453406606656</v>
+        <v>443.2318109760861</v>
       </c>
       <c r="H35" t="n">
-        <v>163.7661518309666</v>
+        <v>155.9593869886768</v>
       </c>
       <c r="I35" t="n">
         <v>93.2436976906228</v>
@@ -6964,25 +6964,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S35" t="n">
-        <v>4545.869976738792</v>
+        <v>4550.539882710113</v>
       </c>
       <c r="T35" t="n">
-        <v>4545.869976738792</v>
+        <v>4351.969472041845</v>
       </c>
       <c r="U35" t="n">
-        <v>4304.638793540885</v>
+        <v>4118.545053686227</v>
       </c>
       <c r="V35" t="n">
-        <v>3970.630547419949</v>
+        <v>3792.343572407581</v>
       </c>
       <c r="W35" t="n">
-        <v>3602.699555097701</v>
+        <v>3432.219344927622</v>
       </c>
       <c r="X35" t="n">
-        <v>3217.885465809236</v>
+        <v>3055.212020481447</v>
       </c>
       <c r="Y35" t="n">
-        <v>2832.778101299909</v>
+        <v>2677.91142081441</v>
       </c>
     </row>
     <row r="36">
@@ -7016,28 +7016,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J36" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K36" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L36" t="n">
-        <v>754.331869609911</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M36" t="n">
-        <v>1597.308950304478</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="N36" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="O36" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="P36" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="Q36" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R36" t="n">
         <v>2139.732893541123</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3427.685269074962</v>
+        <v>247.3392690273195</v>
       </c>
       <c r="C37" t="n">
-        <v>3427.685269074962</v>
+        <v>229.10226898284</v>
       </c>
       <c r="D37" t="n">
-        <v>3427.685269074962</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E37" t="n">
-        <v>3282.603762485864</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F37" t="n">
-        <v>3282.603762485864</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G37" t="n">
-        <v>3242.966429494655</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H37" t="n">
-        <v>3109.188282842695</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I37" t="n">
-        <v>3008.671545489604</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J37" t="n">
-        <v>3038.2684001974</v>
+        <v>130.4919626203472</v>
       </c>
       <c r="K37" t="n">
-        <v>3208.335033222224</v>
+        <v>308.210005867099</v>
       </c>
       <c r="L37" t="n">
-        <v>3483.74643880487</v>
+        <v>591.2728216716733</v>
       </c>
       <c r="M37" t="n">
-        <v>3788.524800547949</v>
+        <v>903.7025936366804</v>
       </c>
       <c r="N37" t="n">
-        <v>4084.877888244785</v>
+        <v>1207.707091555445</v>
       </c>
       <c r="O37" t="n">
-        <v>4359.952803873844</v>
+        <v>1490.433417406432</v>
       </c>
       <c r="P37" t="n">
-        <v>4581.142549426043</v>
+        <v>1719.274573180559</v>
       </c>
       <c r="Q37" t="n">
-        <v>4662.18488453114</v>
+        <v>1807.968318507583</v>
       </c>
       <c r="R37" t="n">
-        <v>4662.18488453114</v>
+        <v>1807.968318507583</v>
       </c>
       <c r="S37" t="n">
-        <v>4662.18488453114</v>
+        <v>1807.968318507583</v>
       </c>
       <c r="T37" t="n">
-        <v>4438.465454050425</v>
+        <v>1592.055652869158</v>
       </c>
       <c r="U37" t="n">
-        <v>4171.496615139133</v>
+        <v>1332.893578800155</v>
       </c>
       <c r="V37" t="n">
-        <v>3913.440178621237</v>
+        <v>1082.64390712455</v>
       </c>
       <c r="W37" t="n">
-        <v>3650.199822672695</v>
+        <v>827.2103160182974</v>
       </c>
       <c r="X37" t="n">
-        <v>3427.685269074962</v>
+        <v>612.5025272628536</v>
       </c>
       <c r="Y37" t="n">
-        <v>3427.685269074962</v>
+        <v>411.4029020364911</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2438.386230178004</v>
+        <v>2383.738876281975</v>
       </c>
       <c r="C38" t="n">
-        <v>2044.090948033857</v>
+        <v>1997.250358980118</v>
       </c>
       <c r="D38" t="n">
-        <v>1655.4563266695</v>
+        <v>1616.422502458051</v>
       </c>
       <c r="E38" t="n">
-        <v>1256.94541972898</v>
+        <v>1225.718360359821</v>
       </c>
       <c r="F38" t="n">
-        <v>851.7443162252507</v>
+        <v>828.3240216983811</v>
       </c>
       <c r="G38" t="n">
-        <v>458.8453406606658</v>
+        <v>443.2318109760861</v>
       </c>
       <c r="H38" t="n">
-        <v>163.7661518309667</v>
+        <v>155.9593869886768</v>
       </c>
       <c r="I38" t="n">
         <v>93.2436976906228</v>
@@ -7201,25 +7201,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S38" t="n">
-        <v>4542.733117867823</v>
+        <v>4550.539882710113</v>
       </c>
       <c r="T38" t="n">
-        <v>4336.355942357265</v>
+        <v>4444.382033789027</v>
       </c>
       <c r="U38" t="n">
-        <v>4095.124759159358</v>
+        <v>4210.957615433409</v>
       </c>
       <c r="V38" t="n">
-        <v>3761.116513038422</v>
+        <v>3884.756134154763</v>
       </c>
       <c r="W38" t="n">
-        <v>3602.699555097702</v>
+        <v>3524.631906674804</v>
       </c>
       <c r="X38" t="n">
-        <v>3217.885465809237</v>
+        <v>3147.624582228629</v>
       </c>
       <c r="Y38" t="n">
-        <v>2832.77810129991</v>
+        <v>2770.323982561592</v>
       </c>
     </row>
     <row r="39">
@@ -7253,22 +7253,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J39" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K39" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L39" t="n">
-        <v>93.2436976906228</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M39" t="n">
-        <v>936.2207783851894</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="N39" t="n">
-        <v>1578.027001052593</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O39" t="n">
-        <v>1578.027001052593</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P39" t="n">
         <v>2139.732893541123</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>543.5941802527041</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C40" t="n">
-        <v>388.3301163570035</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D40" t="n">
-        <v>244.6647802224965</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E40" t="n">
-        <v>244.6647802224965</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F40" t="n">
-        <v>244.6647802224965</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G40" t="n">
         <v>93.2436976906228</v>
@@ -7332,52 +7332,52 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J40" t="n">
-        <v>122.8405523984189</v>
+        <v>130.4919626203472</v>
       </c>
       <c r="K40" t="n">
-        <v>292.9071854232424</v>
+        <v>308.210005867099</v>
       </c>
       <c r="L40" t="n">
-        <v>568.3185910058885</v>
+        <v>591.2728216716733</v>
       </c>
       <c r="M40" t="n">
-        <v>873.0969527489674</v>
+        <v>903.7025936366804</v>
       </c>
       <c r="N40" t="n">
-        <v>1169.450040445803</v>
+        <v>1207.707091555445</v>
       </c>
       <c r="O40" t="n">
-        <v>1444.524956074863</v>
+        <v>1490.433417406432</v>
       </c>
       <c r="P40" t="n">
-        <v>1665.714701627061</v>
+        <v>1719.274573180559</v>
       </c>
       <c r="Q40" t="n">
-        <v>1746.757036732157</v>
+        <v>1807.968318507583</v>
       </c>
       <c r="R40" t="n">
-        <v>1677.313626950139</v>
+        <v>1746.331673567856</v>
       </c>
       <c r="S40" t="n">
-        <v>1677.313626950139</v>
+        <v>1653.872747170887</v>
       </c>
       <c r="T40" t="n">
-        <v>1453.594196469425</v>
+        <v>1437.960081532462</v>
       </c>
       <c r="U40" t="n">
-        <v>1186.625357558132</v>
+        <v>1178.798007463459</v>
       </c>
       <c r="V40" t="n">
-        <v>928.5689210402367</v>
+        <v>928.5483357878534</v>
       </c>
       <c r="W40" t="n">
-        <v>924.3709681728179</v>
+        <v>673.1147446816005</v>
       </c>
       <c r="X40" t="n">
-        <v>924.3709681728179</v>
+        <v>458.4069559261568</v>
       </c>
       <c r="Y40" t="n">
-        <v>715.4645781041655</v>
+        <v>257.3073306997944</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2503.174400507722</v>
+        <v>2383.738876281975</v>
       </c>
       <c r="C41" t="n">
-        <v>2093.049809820992</v>
+        <v>1997.250358980118</v>
       </c>
       <c r="D41" t="n">
-        <v>1688.585879914052</v>
+        <v>1616.422502458051</v>
       </c>
       <c r="E41" t="n">
-        <v>1274.245664430949</v>
+        <v>1225.718360359821</v>
       </c>
       <c r="F41" t="n">
-        <v>899.2322418529996</v>
+        <v>828.3240216983811</v>
       </c>
       <c r="G41" t="n">
-        <v>490.5039577458317</v>
+        <v>443.2318109760861</v>
       </c>
       <c r="H41" t="n">
-        <v>179.5954603735497</v>
+        <v>155.9593869886768</v>
       </c>
       <c r="I41" t="n">
         <v>93.2436976906228</v>
@@ -7438,25 +7438,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S41" t="n">
-        <v>4526.90380932524</v>
+        <v>4550.539882710113</v>
       </c>
       <c r="T41" t="n">
-        <v>4304.697325272099</v>
+        <v>4351.969472041845</v>
       </c>
       <c r="U41" t="n">
-        <v>4047.636833531609</v>
+        <v>4118.545053686227</v>
       </c>
       <c r="V41" t="n">
-        <v>3697.79927886809</v>
+        <v>3792.343572407581</v>
       </c>
       <c r="W41" t="n">
-        <v>3314.038978003258</v>
+        <v>3524.631906674804</v>
       </c>
       <c r="X41" t="n">
-        <v>2913.395580172211</v>
+        <v>3147.624582228629</v>
       </c>
       <c r="Y41" t="n">
-        <v>2913.395580172211</v>
+        <v>2770.323982561592</v>
       </c>
     </row>
     <row r="42">
@@ -7496,22 +7496,22 @@
         <v>741.8628115185547</v>
       </c>
       <c r="L42" t="n">
-        <v>1402.950983437843</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M42" t="n">
-        <v>1402.950983437843</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N42" t="n">
-        <v>1402.950983437843</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O42" t="n">
-        <v>1402.950983437843</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P42" t="n">
-        <v>1964.656875926373</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q42" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R42" t="n">
         <v>2139.732893541123</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>749.3736558270855</v>
+        <v>740.2714105008965</v>
       </c>
       <c r="C43" t="n">
-        <v>578.280283388802</v>
+        <v>592.8141114474859</v>
       </c>
       <c r="D43" t="n">
-        <v>418.7856387117121</v>
+        <v>592.8141114474859</v>
       </c>
       <c r="E43" t="n">
-        <v>257.8748235800315</v>
+        <v>455.5393697006782</v>
       </c>
       <c r="F43" t="n">
-        <v>93.2436976906228</v>
+        <v>455.5393697006782</v>
       </c>
       <c r="G43" t="n">
-        <v>93.2436976906228</v>
+        <v>311.9250520110944</v>
       </c>
       <c r="H43" t="n">
-        <v>93.2436976906228</v>
+        <v>185.9536702014238</v>
       </c>
       <c r="I43" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J43" t="n">
-        <v>107.3262470958333</v>
+        <v>130.4919626203472</v>
       </c>
       <c r="K43" t="n">
-        <v>261.8785748180713</v>
+        <v>308.210005867099</v>
       </c>
       <c r="L43" t="n">
-        <v>521.7756750981318</v>
+        <v>591.2728216716733</v>
       </c>
       <c r="M43" t="n">
-        <v>811.0397315386251</v>
+        <v>903.7025936366804</v>
       </c>
       <c r="N43" t="n">
-        <v>1091.878513932875</v>
+        <v>1207.707091555445</v>
       </c>
       <c r="O43" t="n">
-        <v>1351.43912425935</v>
+        <v>1490.433417406432</v>
       </c>
       <c r="P43" t="n">
-        <v>1557.114564508962</v>
+        <v>1719.274573180559</v>
       </c>
       <c r="Q43" t="n">
-        <v>1622.642594311473</v>
+        <v>1807.968318507583</v>
       </c>
       <c r="R43" t="n">
-        <v>1622.642594311473</v>
+        <v>1796.394192175985</v>
       </c>
       <c r="S43" t="n">
-        <v>1622.642594311473</v>
+        <v>1633.638497440768</v>
       </c>
       <c r="T43" t="n">
-        <v>1622.642594311473</v>
+        <v>1633.638497440768</v>
       </c>
       <c r="U43" t="n">
-        <v>1622.642594311473</v>
+        <v>1374.476423371765</v>
       </c>
       <c r="V43" t="n">
-        <v>1348.756849250995</v>
+        <v>1374.476423371765</v>
       </c>
       <c r="W43" t="n">
-        <v>1069.687184759869</v>
+        <v>1119.042832265512</v>
       </c>
       <c r="X43" t="n">
-        <v>1069.687184759869</v>
+        <v>904.3350435100681</v>
       </c>
       <c r="Y43" t="n">
-        <v>844.951486148634</v>
+        <v>904.3350435100681</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2102.237727455811</v>
+        <v>2426.584321816998</v>
       </c>
       <c r="C44" t="n">
-        <v>2102.237727455811</v>
+        <v>2031.051175459989</v>
       </c>
       <c r="D44" t="n">
-        <v>1697.773797548872</v>
+        <v>1641.17868988277</v>
       </c>
       <c r="E44" t="n">
-        <v>1320.262653899312</v>
+        <v>1241.429918729387</v>
       </c>
       <c r="F44" t="n">
-        <v>899.2322418529996</v>
+        <v>834.9909510127956</v>
       </c>
       <c r="G44" t="n">
-        <v>490.5039577458317</v>
+        <v>440.8541112353485</v>
       </c>
       <c r="H44" t="n">
-        <v>179.5954603735497</v>
+        <v>144.5370581927871</v>
       </c>
       <c r="I44" t="n">
         <v>93.2436976906228</v>
@@ -7651,7 +7651,7 @@
         <v>347.4291691583771</v>
       </c>
       <c r="K44" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L44" t="n">
         <v>1598.180070079655</v>
@@ -7675,25 +7675,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S44" t="n">
-        <v>4526.90380932524</v>
+        <v>4541.495253654961</v>
       </c>
       <c r="T44" t="n">
-        <v>4304.697325272099</v>
+        <v>4541.495253654961</v>
       </c>
       <c r="U44" t="n">
-        <v>4047.636833531609</v>
+        <v>4299.026206244192</v>
       </c>
       <c r="V44" t="n">
-        <v>3697.79927886809</v>
+        <v>3963.780095910393</v>
       </c>
       <c r="W44" t="n">
-        <v>3314.038978003258</v>
+        <v>3594.611239375282</v>
       </c>
       <c r="X44" t="n">
-        <v>2913.395580172211</v>
+        <v>3208.559285873956</v>
       </c>
       <c r="Y44" t="n">
-        <v>2512.458907120301</v>
+        <v>2822.214057151767</v>
       </c>
     </row>
     <row r="45">
@@ -7733,22 +7733,22 @@
         <v>741.8628115185547</v>
       </c>
       <c r="L45" t="n">
-        <v>741.8628115185547</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M45" t="n">
-        <v>1198.623017005979</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="N45" t="n">
-        <v>1198.623017005979</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O45" t="n">
-        <v>1198.623017005979</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P45" t="n">
-        <v>1760.328909494509</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q45" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R45" t="n">
         <v>2139.732893541123</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>93.2436976906228</v>
+        <v>245.9026444353586</v>
       </c>
       <c r="C46" t="n">
-        <v>93.2436976906228</v>
+        <v>245.9026444353586</v>
       </c>
       <c r="D46" t="n">
-        <v>93.2436976906228</v>
+        <v>245.9026444353586</v>
       </c>
       <c r="E46" t="n">
-        <v>93.2436976906228</v>
+        <v>245.9026444353586</v>
       </c>
       <c r="F46" t="n">
-        <v>93.2436976906228</v>
+        <v>245.9026444353586</v>
       </c>
       <c r="G46" t="n">
         <v>93.2436976906228</v>
@@ -7806,52 +7806,52 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J46" t="n">
-        <v>107.3262470958333</v>
+        <v>121.6273216833926</v>
       </c>
       <c r="K46" t="n">
-        <v>261.8785748180713</v>
+        <v>290.4807239931898</v>
       </c>
       <c r="L46" t="n">
-        <v>521.7756750981318</v>
+        <v>564.6788988608097</v>
       </c>
       <c r="M46" t="n">
-        <v>811.0397315386251</v>
+        <v>868.2440298888622</v>
       </c>
       <c r="N46" t="n">
-        <v>1091.878513932875</v>
+        <v>1163.383886870672</v>
       </c>
       <c r="O46" t="n">
-        <v>1351.43912425935</v>
+        <v>1437.245571784705</v>
       </c>
       <c r="P46" t="n">
-        <v>1557.114564508962</v>
+        <v>1657.222086621877</v>
       </c>
       <c r="Q46" t="n">
-        <v>1622.642594311473</v>
+        <v>1737.051191011947</v>
       </c>
       <c r="R46" t="n">
-        <v>1622.642594311473</v>
+        <v>1696.735835237364</v>
       </c>
       <c r="S46" t="n">
-        <v>1436.250826191383</v>
+        <v>1696.735835237364</v>
       </c>
       <c r="T46" t="n">
-        <v>1436.250826191383</v>
+        <v>1471.778540543787</v>
       </c>
       <c r="U46" t="n">
-        <v>1153.452678737507</v>
+        <v>1203.571837419631</v>
       </c>
       <c r="V46" t="n">
-        <v>879.5669336770293</v>
+        <v>944.2775366888741</v>
       </c>
       <c r="W46" t="n">
-        <v>600.4972691859036</v>
+        <v>679.7993165274692</v>
       </c>
       <c r="X46" t="n">
-        <v>362.153407045587</v>
+        <v>456.0468987168732</v>
       </c>
       <c r="Y46" t="n">
-        <v>137.4177084343517</v>
+        <v>245.9026444353586</v>
       </c>
     </row>
   </sheetData>
@@ -7978,28 +7978,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K2" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L2" t="n">
-        <v>537.3610023606261</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M2" t="n">
-        <v>93.29022445704545</v>
+        <v>594.2603172363632</v>
       </c>
       <c r="N2" t="n">
-        <v>92.91229075661933</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O2" t="n">
         <v>615.2533459958087</v>
       </c>
       <c r="P2" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q2" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R2" t="n">
         <v>87.31214281472352</v>
@@ -8057,28 +8057,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L3" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M3" t="n">
         <v>579.627854108443</v>
       </c>
       <c r="N3" t="n">
-        <v>53.19339339374999</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O3" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P3" t="n">
-        <v>171.9933802602892</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q3" t="n">
-        <v>410.0708656603775</v>
+        <v>394.6973592394724</v>
       </c>
       <c r="R3" t="n">
         <v>88.85829947169823</v>
@@ -8218,25 +8218,25 @@
         <v>330.076592815888</v>
       </c>
       <c r="K5" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L5" t="n">
-        <v>298.736180582244</v>
+        <v>496.3946935832878</v>
       </c>
       <c r="M5" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N5" t="n">
-        <v>614.9758611266449</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O5" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P5" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q5" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R5" t="n">
         <v>128.2784515920617</v>
@@ -8294,31 +8294,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K6" t="n">
-        <v>203.4176284083942</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M6" t="n">
-        <v>57.56428373841742</v>
+        <v>564.2543476875381</v>
       </c>
       <c r="N6" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O6" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P6" t="n">
-        <v>576.3232053728293</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q6" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R6" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8452,13 +8452,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K8" t="n">
-        <v>89.13638967321712</v>
+        <v>590.1064824525349</v>
       </c>
       <c r="L8" t="n">
-        <v>617.5489684328704</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M8" t="n">
         <v>615.3537948270711</v>
@@ -8467,7 +8467,7 @@
         <v>614.9758611266449</v>
       </c>
       <c r="O8" t="n">
-        <v>296.4405581451824</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P8" t="n">
         <v>93.64936328088416</v>
@@ -8476,7 +8476,7 @@
         <v>90.03380439915205</v>
       </c>
       <c r="R8" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8534,25 +8534,25 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K9" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L9" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M9" t="n">
-        <v>558.5343765177352</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
-        <v>53.19339339374999</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O9" t="n">
         <v>579.8150493700256</v>
       </c>
       <c r="P9" t="n">
-        <v>576.3232053728293</v>
+        <v>263.5046911326696</v>
       </c>
       <c r="Q9" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R9" t="n">
         <v>59.00019910540541</v>
@@ -8771,7 +8771,7 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K12" t="n">
-        <v>516.2361426485535</v>
+        <v>146.9151984756836</v>
       </c>
       <c r="L12" t="n">
         <v>723.8803540323523</v>
@@ -8783,16 +8783,16 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O12" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P12" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q12" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R12" t="n">
-        <v>77.22687637146549</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,28 +9005,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>51.36923880000001</v>
+        <v>69.59591606606023</v>
       </c>
       <c r="K15" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L15" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M15" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N15" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O15" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P15" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q15" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R15" t="n">
         <v>59.00019910540541</v>
@@ -9242,10 +9242,10 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
         <v>723.8803540323523</v>
@@ -9254,13 +9254,13 @@
         <v>57.56428373841742</v>
       </c>
       <c r="N18" t="n">
-        <v>174.1409094511112</v>
+        <v>86.34977678504856</v>
       </c>
       <c r="O18" t="n">
         <v>768.8192472281761</v>
       </c>
       <c r="P18" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q18" t="n">
         <v>56.69261850483872</v>
@@ -9479,22 +9479,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L21" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M21" t="n">
-        <v>531.1743980747688</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N21" t="n">
-        <v>935.6763147186165</v>
+        <v>767.5594446469316</v>
       </c>
       <c r="O21" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P21" t="n">
         <v>54.25963500280375</v>
@@ -9503,7 +9503,7 @@
         <v>56.69261850483872</v>
       </c>
       <c r="R21" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9716,31 +9716,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
         <v>723.8803540323523</v>
       </c>
       <c r="M24" t="n">
-        <v>909.0562844399999</v>
+        <v>418.5520878360603</v>
       </c>
       <c r="N24" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O24" t="n">
-        <v>605.6544519663084</v>
+        <v>57.751479</v>
       </c>
       <c r="P24" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q24" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9953,31 +9953,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M27" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N27" t="n">
-        <v>601.0963663600584</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O27" t="n">
-        <v>57.751479</v>
+        <v>519.1254239367926</v>
       </c>
       <c r="P27" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q27" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10190,25 +10190,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M30" t="n">
-        <v>531.1743980747688</v>
+        <v>234.4087459755385</v>
       </c>
       <c r="N30" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O30" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P30" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q30" t="n">
         <v>56.69261850483872</v>
@@ -10427,22 +10427,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M33" t="n">
-        <v>909.0562844399999</v>
+        <v>801.788435357892</v>
       </c>
       <c r="N33" t="n">
-        <v>557.7944283533855</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O33" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P33" t="n">
         <v>54.25963500280375</v>
@@ -10664,19 +10664,19 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
         <v>723.8803540323523</v>
       </c>
       <c r="M36" t="n">
-        <v>909.0562844399999</v>
+        <v>771.9303349915991</v>
       </c>
       <c r="N36" t="n">
-        <v>601.0963663600584</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O36" t="n">
         <v>57.751479</v>
@@ -10688,7 +10688,7 @@
         <v>56.69261850483872</v>
       </c>
       <c r="R36" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10901,25 +10901,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M39" t="n">
-        <v>909.0562844399999</v>
+        <v>801.788435357892</v>
       </c>
       <c r="N39" t="n">
-        <v>701.4825071992079</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O39" t="n">
         <v>57.751479</v>
       </c>
       <c r="P39" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q39" t="n">
         <v>56.69261850483872</v>
@@ -11144,7 +11144,7 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
-        <v>723.8803540323523</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M42" t="n">
         <v>57.56428373841742</v>
@@ -11159,10 +11159,10 @@
         <v>621.6393243851574</v>
       </c>
       <c r="Q42" t="n">
-        <v>233.5370807419598</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11311,7 +11311,7 @@
         <v>853.701196452193</v>
       </c>
       <c r="O44" t="n">
-        <v>743.3219538248791</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P44" t="n">
         <v>628.1510783507341</v>
@@ -11381,10 +11381,10 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M45" t="n">
-        <v>518.93822867521</v>
+        <v>801.788435357892</v>
       </c>
       <c r="N45" t="n">
         <v>53.19339339374999</v>
@@ -11393,13 +11393,13 @@
         <v>57.751479</v>
       </c>
       <c r="P45" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q45" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R45" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>356.9958808389729</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23278,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
-        <v>131.2283347391107</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>133.4858729041767</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I13" t="n">
-        <v>85.6836437103791</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>8.893130557884461</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>241.6479458835353</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>246.7800261198764</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23515,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>9.992308705824279</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>156.323767603766</v>
+        <v>156.9899215174876</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>140.5496509012843</v>
       </c>
       <c r="D16" t="n">
-        <v>128.4007565039811</v>
+        <v>129.0669104177028</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>130.4689191677474</v>
       </c>
       <c r="F16" t="n">
-        <v>133.4858729041767</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>29.53950896676069</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>85.68364371037917</v>
+        <v>86.34979762410079</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>54.92104941501641</v>
+        <v>55.58720332873803</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>155.6950626262725</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>250.4712242529991</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>139.8834969875627</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>129.8027652540258</v>
       </c>
       <c r="F19" t="n">
         <v>133.4858729041767</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>48.0357996656774</v>
       </c>
       <c r="H19" t="n">
         <v>118.61243891626</v>
       </c>
       <c r="I19" t="n">
-        <v>85.68364371037917</v>
+        <v>85.68364371037919</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>54.92104941501641</v>
+        <v>54.92104941501642</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>207.654309906727</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>98.58501151695739</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23989,7 +23989,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>8.029132914089132e-13</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>156.323767603766</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>51.84035121586605</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>129.8027652540258</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>136.0789454373741</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>118.61243891626</v>
       </c>
       <c r="I22" t="n">
-        <v>85.68364371037917</v>
+        <v>85.68364371037919</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>54.92104941501642</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24186,16 +24186,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>157.0489860242727</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>246.7800261198764</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>192.989399898785</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>156.3237676037659</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>139.8834969875626</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>128.400756503981</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>129.8027652540258</v>
       </c>
       <c r="F25" t="n">
-        <v>73.84277419775447</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>136.078945437374</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>118.6124389162598</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>85.68364371037904</v>
+        <v>85.68364371037919</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>54.92104941501642</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24426,13 +24426,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>246.7800261198764</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>0.2481824550153533</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>192.989399898785</v>
       </c>
     </row>
     <row r="26">
@@ -24463,7 +24463,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>8.029132914089132e-13</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24496,10 +24496,10 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>204.3134037554526</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>3.105490282260547</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>170.1516938729468</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>95.27866014730081</v>
       </c>
       <c r="E28" t="n">
-        <v>143.6306915232066</v>
+        <v>129.8027652540258</v>
       </c>
       <c r="F28" t="n">
-        <v>113.4550037084069</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>136.0789454373741</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>118.61243891626</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>85.68364371037919</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,13 +24654,13 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.4822361759078</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>264.2991505221799</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>255.4758721527161</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24697,7 +24697,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>298.179075720237</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,13 +24730,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>118.2572489966829</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>89.16164504102792</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>159.7621020355785</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24849,16 +24849,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>107.2583861802144</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>149.9068717065548</v>
+        <v>155.9575504853898</v>
       </c>
       <c r="H31" t="n">
-        <v>132.4403651854407</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>99.51156997955988</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>68.74897568419712</v>
+        <v>74.79965446303217</v>
       </c>
       <c r="S31" t="n">
-        <v>168.8568349817316</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.4822361759077</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>270.3498293010149</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>261.5265509315511</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>220.2894080617562</v>
+        <v>177.4839784224464</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>212.8680049468007</v>
       </c>
     </row>
     <row r="32">
@@ -24931,13 +24931,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>29.39990372463632</v>
       </c>
       <c r="H32" t="n">
-        <v>207.4188940377126</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>62.08853240507349</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>145.9827260628766</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>134.499985579295</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>135.9019943293396</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>139.5851019794906</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>142.1781745126879</v>
       </c>
       <c r="H34" t="n">
-        <v>132.4403651854407</v>
+        <v>124.7116679915738</v>
       </c>
       <c r="I34" t="n">
-        <v>99.51156997955988</v>
+        <v>91.78287278569303</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>68.74897568419712</v>
+        <v>61.02027849033026</v>
       </c>
       <c r="S34" t="n">
-        <v>168.8568349817316</v>
+        <v>8.573522164534893</v>
       </c>
       <c r="T34" t="n">
-        <v>7.531017372531664</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>264.2991505221798</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>220.2894080617562</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>206.8173261679657</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25159,7 +25159,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>91.48843612970978</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25204,10 +25204,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>3.105490282258316</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>204.3134037554525</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>170.1516938729467</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>153.7114232567434</v>
+        <v>127.9280960188418</v>
       </c>
       <c r="D37" t="n">
-        <v>142.2286827731618</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>135.9019943293396</v>
       </c>
       <c r="F37" t="n">
-        <v>147.3137991733574</v>
+        <v>139.5851019794906</v>
       </c>
       <c r="G37" t="n">
-        <v>110.6659120452579</v>
+        <v>142.1781745126879</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>124.7116679915738</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>91.78287278569303</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>68.74897568419712</v>
+        <v>61.02027849033026</v>
       </c>
       <c r="S37" t="n">
-        <v>168.8568349817316</v>
+        <v>161.1281377878647</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>206.8173261679657</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25444,7 +25444,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>91.4884361297096</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -25453,7 +25453,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>207.4188940377129</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>145.9827260628766</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>134.499985579295</v>
       </c>
       <c r="E40" t="n">
-        <v>143.6306915232066</v>
+        <v>135.9019943293396</v>
       </c>
       <c r="F40" t="n">
-        <v>147.3137991733576</v>
+        <v>139.5851019794906</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>142.1781745126879</v>
       </c>
       <c r="H40" t="n">
-        <v>132.4403651854408</v>
+        <v>124.7116679915738</v>
       </c>
       <c r="I40" t="n">
-        <v>99.51156997955999</v>
+        <v>91.78287278569303</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>168.8568349817317</v>
+        <v>69.59380065486522</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25611,10 +25611,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>256.4519790503127</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>220.2894080617563</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25639,7 +25639,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>45.55681957367926</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25690,13 +25690,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>91.4884361297099</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>91.20065731177094</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>134.499985579295</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>139.5851019794906</v>
       </c>
       <c r="G43" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>84.41999114135434</v>
+        <v>49.56189342204746</v>
       </c>
       <c r="S43" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>237.1532516330649</v>
+        <v>213.7535389820408</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>247.7471749588492</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>199.0886289740988</v>
       </c>
     </row>
     <row r="44">
@@ -25867,13 +25867,13 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>36.46078111520819</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>20.26228827253138</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25918,7 +25918,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>205.5388893261863</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>142.0904386938123</v>
+        <v>171.3771794436804</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>154.9369088274771</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>143.4541683438956</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>144.8561770939402</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>148.5392847440911</v>
       </c>
       <c r="G46" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.1113806425979</v>
+        <v>133.6658507561744</v>
       </c>
       <c r="I46" t="n">
-        <v>115.1825854367171</v>
+        <v>100.7370555502936</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>84.41999114135434</v>
+        <v>30.06225903809374</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>170.0823205524653</v>
       </c>
       <c r="T46" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>568257.9771323318</v>
+        <v>521367.6015631686</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>568257.9771323317</v>
+        <v>567199.0846645595</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>568257.9771323317</v>
+        <v>568257.9771323319</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>568257.9771323319</v>
+        <v>568257.9771323318</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>546277.6409521471</v>
+        <v>568257.9771323319</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>546277.6409521473</v>
+        <v>536659.7162475935</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>546277.6409521471</v>
+        <v>558562.8787563626</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>546277.6409521473</v>
+        <v>558562.8787563626</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>546277.6409521471</v>
+        <v>558562.8787563626</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>521367.6015631686</v>
+        <v>558562.8787563626</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>521367.6015631686</v>
+        <v>544329.6565397102</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>553800.1363103538</v>
+      </c>
+      <c r="C2" t="n">
+        <v>553800.1363103536</v>
+      </c>
+      <c r="D2" t="n">
         <v>553800.1363103539</v>
       </c>
-      <c r="C2" t="n">
-        <v>553800.1363103535</v>
-      </c>
-      <c r="D2" t="n">
-        <v>553800.1363103538</v>
-      </c>
       <c r="E2" t="n">
-        <v>536688.0895138684</v>
+        <v>492402.7348096595</v>
       </c>
       <c r="F2" t="n">
+        <v>535688.0244054177</v>
+      </c>
+      <c r="G2" t="n">
         <v>536688.0895138687</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>536688.0895138686</v>
       </c>
-      <c r="H2" t="n">
-        <v>536688.0895138682</v>
-      </c>
       <c r="I2" t="n">
-        <v>536688.089513869</v>
+        <v>536688.0895138683</v>
       </c>
       <c r="J2" t="n">
-        <v>515928.8831214728</v>
+        <v>536688.0895138686</v>
       </c>
       <c r="K2" t="n">
-        <v>515928.883121473</v>
+        <v>506845.2875671714</v>
       </c>
       <c r="L2" t="n">
-        <v>515928.8831214728</v>
+        <v>527531.6077143429</v>
       </c>
       <c r="M2" t="n">
-        <v>515928.8831214729</v>
+        <v>527531.6077143421</v>
       </c>
       <c r="N2" t="n">
-        <v>515928.8831214728</v>
+        <v>527531.6077143429</v>
       </c>
       <c r="O2" t="n">
-        <v>492402.7348096594</v>
+        <v>527531.6077143427</v>
       </c>
       <c r="P2" t="n">
-        <v>492402.7348096594</v>
+        <v>514089.120065282</v>
       </c>
     </row>
     <row r="3">
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>215728.9162805136</v>
+        <v>192129.7628994432</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>23066.23025009306</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>532.9231309772837</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>149131.6131716206</v>
+        <v>136594.800805895</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>7163.346211680459</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>11556.42390913881</v>
       </c>
       <c r="M3" t="n">
         <v>160358.4505006827</v>
@@ -26426,10 +26426,10 @@
         <v>155118.3712081971</v>
       </c>
       <c r="E4" t="n">
-        <v>30548.15734701357</v>
+        <v>738.1279301446466</v>
       </c>
       <c r="F4" t="n">
-        <v>30548.1573470135</v>
+        <v>29874.97835813901</v>
       </c>
       <c r="G4" t="n">
         <v>30548.1573470135</v>
@@ -26438,28 +26438,28 @@
         <v>30548.1573470135</v>
       </c>
       <c r="I4" t="n">
-        <v>30548.15734701363</v>
+        <v>30548.1573470135</v>
       </c>
       <c r="J4" t="n">
-        <v>16574.40558728401</v>
+        <v>30548.1573470135</v>
       </c>
       <c r="K4" t="n">
-        <v>16574.40558728408</v>
+        <v>10459.91802151307</v>
       </c>
       <c r="L4" t="n">
-        <v>16574.40558728408</v>
+        <v>24384.60748674877</v>
       </c>
       <c r="M4" t="n">
-        <v>16574.40558728408</v>
+        <v>24384.60748674877</v>
       </c>
       <c r="N4" t="n">
-        <v>16574.40558728396</v>
+        <v>24384.60748674877</v>
       </c>
       <c r="O4" t="n">
-        <v>738.1279301446465</v>
+        <v>24384.60748674877</v>
       </c>
       <c r="P4" t="n">
-        <v>738.1279301446466</v>
+        <v>15335.99638425483</v>
       </c>
     </row>
     <row r="5">
@@ -26478,10 +26478,10 @@
         <v>65369.06507849755</v>
       </c>
       <c r="E5" t="n">
-        <v>73345.15677686482</v>
+        <v>70865.21024487332</v>
       </c>
       <c r="F5" t="n">
-        <v>73345.15677686482</v>
+        <v>73289.15388349217</v>
       </c>
       <c r="G5" t="n">
         <v>73345.15677686482</v>
@@ -26490,28 +26490,28 @@
         <v>73345.15677686482</v>
       </c>
       <c r="I5" t="n">
-        <v>73345.15677686484</v>
+        <v>73345.15677686482</v>
       </c>
       <c r="J5" t="n">
-        <v>72182.65684334107</v>
+        <v>73345.15677686482</v>
       </c>
       <c r="K5" t="n">
-        <v>72182.65684334107</v>
+        <v>71673.98232908318</v>
       </c>
       <c r="L5" t="n">
-        <v>72182.65684334107</v>
+        <v>72832.40068773227</v>
       </c>
       <c r="M5" t="n">
-        <v>72182.65684334107</v>
+        <v>72832.40068773227</v>
       </c>
       <c r="N5" t="n">
-        <v>72182.65684334106</v>
+        <v>72832.40068773227</v>
       </c>
       <c r="O5" t="n">
-        <v>70865.21024487332</v>
+        <v>72832.40068773227</v>
       </c>
       <c r="P5" t="n">
-        <v>70865.21024487332</v>
+        <v>72079.63149689506</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>158357.1901305452</v>
+        <v>158357.190130545</v>
       </c>
       <c r="C6" t="n">
-        <v>333312.7000236589</v>
+        <v>333312.700023659</v>
       </c>
       <c r="D6" t="n">
         <v>333312.7000236592</v>
       </c>
       <c r="E6" t="n">
-        <v>217065.8591094764</v>
+        <v>228489.0531425492</v>
       </c>
       <c r="F6" t="n">
-        <v>432794.7753899904</v>
+        <v>409404.3909963261</v>
       </c>
       <c r="G6" t="n">
-        <v>432794.7753899902</v>
+        <v>432211.5227096116</v>
       </c>
       <c r="H6" t="n">
-        <v>432794.7753899899</v>
+        <v>432744.4458405888</v>
       </c>
       <c r="I6" t="n">
-        <v>432794.7753899905</v>
+        <v>432744.4458405886</v>
       </c>
       <c r="J6" t="n">
-        <v>278040.2075192271</v>
+        <v>296149.6450346938</v>
       </c>
       <c r="K6" t="n">
-        <v>427171.8206908478</v>
+        <v>417409.9385085912</v>
       </c>
       <c r="L6" t="n">
-        <v>427171.8206908476</v>
+        <v>418680.9152524995</v>
       </c>
       <c r="M6" t="n">
-        <v>266813.3701901651</v>
+        <v>269878.8886609548</v>
       </c>
       <c r="N6" t="n">
-        <v>427171.8206908478</v>
+        <v>430237.3391616383</v>
       </c>
       <c r="O6" t="n">
-        <v>420799.3966346415</v>
+        <v>430237.3391616381</v>
       </c>
       <c r="P6" t="n">
-        <v>420799.3966346414</v>
+        <v>426556.695077529</v>
       </c>
     </row>
   </sheetData>
@@ -26694,10 +26694,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>29.498941726338</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>29.49894172633793</v>
+        <v>28.83278781261632</v>
       </c>
       <c r="G2" t="n">
         <v>29.49894172633793</v>
@@ -26706,28 +26706,28 @@
         <v>29.49894172633793</v>
       </c>
       <c r="I2" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="J2" t="n">
-        <v>15.67101545715717</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="K2" t="n">
-        <v>15.67101545715723</v>
+        <v>9.620336678322179</v>
       </c>
       <c r="L2" t="n">
-        <v>15.67101545715723</v>
+        <v>23.39971265102408</v>
       </c>
       <c r="M2" t="n">
-        <v>15.67101545715723</v>
+        <v>23.39971265102408</v>
       </c>
       <c r="N2" t="n">
-        <v>15.67101545715711</v>
+        <v>23.39971265102408</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>23.39971265102408</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>14.44552988642351</v>
       </c>
     </row>
     <row r="3">
@@ -26916,13 +26916,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>29.498941726338</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>28.83278781261632</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>0.6661539137216046</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26931,13 +26931,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>15.67101545715711</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>8.954182764600574</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>14.44552988642351</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27153,13 +27153,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.498941726338</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>28.83278781261632</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>0.6661539137216046</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27168,10 +27168,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>15.67101545715711</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>8.954182764600574</v>
       </c>
     </row>
     <row r="3">
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>151.6447410059027</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>152.1234863376399</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="3">
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>84.69006343733153</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27554,7 +27554,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
         <v>115.1825854367171</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
         <v>184.5278504388888</v>
@@ -27593,19 +27593,19 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>221.5920803845235</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>369.0352118716404</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>256.7573221263828</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
         <v>85.48824505609757</v>
@@ -27678,7 +27678,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
         <v>396.636963852737</v>
@@ -27776,22 +27776,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
         <v>184.5278504388888</v>
@@ -27830,19 +27830,19 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>208.6070786176243</v>
       </c>
       <c r="Y7" t="n">
-        <v>157.1651648329952</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27855,7 +27855,7 @@
         <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>103.6834669398975</v>
+        <v>325.994634282359</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27870,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -28022,16 +28022,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
         <v>184.5278504388888</v>
@@ -28070,16 +28070,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>164.1762662001701</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>57.06664624006515</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28089,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>29.498941726338</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>29.498941726338</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>29.498941726338</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>29.498941726338</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>29.498941726338</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>29.498941726338</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>29.498941726338</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>29.498941726338</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>29.498941726338</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>29.498941726338</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>29.498941726338</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>29.498941726338</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>29.498941726338</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>29.498941726338</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>29.498941726338</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>29.498941726338</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>29.498941726338</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>29.498941726338</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>29.498941726338</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>29.498941726338</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>29.498941726338</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>29.498941726338</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>29.498941726338</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>29.498941726338</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>29.498941726338</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>29.498941726338</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>29.498941726338</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>29.498941726338</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>29.498941726338</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>29.498941726338</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.498941726338</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>29.498941726338</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>29.498941726338</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>29.498941726338</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>29.498941726338</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>29.498941726338</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>29.498941726338</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>29.498941726338</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>29.498941726338</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -28326,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>29.49894172633793</v>
+        <v>28.83278781261632</v>
       </c>
       <c r="C14" t="n">
-        <v>29.49894172633793</v>
+        <v>28.83278781261632</v>
       </c>
       <c r="D14" t="n">
-        <v>29.49894172633793</v>
+        <v>28.83278781261632</v>
       </c>
       <c r="E14" t="n">
-        <v>29.49894172633793</v>
+        <v>28.83278781261632</v>
       </c>
       <c r="F14" t="n">
-        <v>29.49894172633793</v>
+        <v>28.83278781261632</v>
       </c>
       <c r="G14" t="n">
-        <v>29.49894172633793</v>
+        <v>28.83278781261632</v>
       </c>
       <c r="H14" t="n">
-        <v>29.49894172633793</v>
+        <v>28.83278781261632</v>
       </c>
       <c r="I14" t="n">
-        <v>29.49894172633793</v>
+        <v>28.83278781261632</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>29.49894172633793</v>
+        <v>28.83278781261632</v>
       </c>
       <c r="T14" t="n">
-        <v>29.49894172633793</v>
+        <v>28.83278781261632</v>
       </c>
       <c r="U14" t="n">
-        <v>29.49894172633793</v>
+        <v>28.83278781261632</v>
       </c>
       <c r="V14" t="n">
-        <v>29.49894172633793</v>
+        <v>28.83278781261632</v>
       </c>
       <c r="W14" t="n">
-        <v>29.49894172633793</v>
+        <v>28.83278781261632</v>
       </c>
       <c r="X14" t="n">
-        <v>29.49894172633793</v>
+        <v>28.83278781261632</v>
       </c>
       <c r="Y14" t="n">
-        <v>29.49894172633793</v>
+        <v>28.83278781261632</v>
       </c>
     </row>
     <row r="15">
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>29.49894172633793</v>
+        <v>28.83278781261632</v>
       </c>
       <c r="C16" t="n">
-        <v>29.49894172633793</v>
+        <v>28.83278781261632</v>
       </c>
       <c r="D16" t="n">
-        <v>29.49894172633793</v>
+        <v>28.83278781261632</v>
       </c>
       <c r="E16" t="n">
-        <v>29.49894172633793</v>
+        <v>28.83278781261632</v>
       </c>
       <c r="F16" t="n">
-        <v>29.49894172633793</v>
+        <v>28.83278781261632</v>
       </c>
       <c r="G16" t="n">
-        <v>29.49894172633793</v>
+        <v>28.83278781261632</v>
       </c>
       <c r="H16" t="n">
-        <v>29.49894172633793</v>
+        <v>28.83278781261632</v>
       </c>
       <c r="I16" t="n">
-        <v>29.49894172633793</v>
+        <v>28.83278781261632</v>
       </c>
       <c r="J16" t="n">
-        <v>29.49894172633793</v>
+        <v>28.83278781261632</v>
       </c>
       <c r="K16" t="n">
-        <v>29.49894172633793</v>
+        <v>28.83278781261632</v>
       </c>
       <c r="L16" t="n">
-        <v>29.49894172633793</v>
+        <v>28.83278781261632</v>
       </c>
       <c r="M16" t="n">
-        <v>29.49894172633793</v>
+        <v>28.83278781261632</v>
       </c>
       <c r="N16" t="n">
-        <v>29.49894172633793</v>
+        <v>28.83278781261632</v>
       </c>
       <c r="O16" t="n">
-        <v>29.49894172633793</v>
+        <v>28.83278781261632</v>
       </c>
       <c r="P16" t="n">
-        <v>29.49894172633793</v>
+        <v>28.83278781261632</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.49894172633793</v>
+        <v>28.83278781261632</v>
       </c>
       <c r="R16" t="n">
-        <v>29.49894172633793</v>
+        <v>28.83278781261632</v>
       </c>
       <c r="S16" t="n">
-        <v>29.49894172633793</v>
+        <v>28.83278781261632</v>
       </c>
       <c r="T16" t="n">
-        <v>29.49894172633793</v>
+        <v>28.83278781261632</v>
       </c>
       <c r="U16" t="n">
-        <v>29.49894172633793</v>
+        <v>28.83278781261632</v>
       </c>
       <c r="V16" t="n">
-        <v>29.49894172633793</v>
+        <v>28.83278781261632</v>
       </c>
       <c r="W16" t="n">
-        <v>29.49894172633793</v>
+        <v>28.83278781261632</v>
       </c>
       <c r="X16" t="n">
-        <v>29.49894172633793</v>
+        <v>28.83278781261632</v>
       </c>
       <c r="Y16" t="n">
-        <v>29.49894172633793</v>
+        <v>28.83278781261632</v>
       </c>
     </row>
     <row r="17">
@@ -29037,28 +29037,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="C23" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="D23" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="E23" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="F23" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="G23" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="H23" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="I23" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29088,25 +29088,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="T23" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="U23" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="V23" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="W23" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="X23" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="Y23" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
     </row>
     <row r="24">
@@ -29195,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="C25" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="D25" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="E25" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="F25" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="G25" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="H25" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="I25" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="J25" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="K25" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="L25" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="M25" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="N25" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="O25" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="P25" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="Q25" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="R25" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="S25" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="T25" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="U25" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="V25" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="W25" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="X25" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="Y25" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
     </row>
     <row r="26">
@@ -29274,28 +29274,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>15.67101545715717</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="C26" t="n">
-        <v>15.67101545715717</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="D26" t="n">
-        <v>15.67101545715717</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="E26" t="n">
-        <v>15.67101545715717</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="F26" t="n">
-        <v>15.67101545715717</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="G26" t="n">
-        <v>15.67101545715717</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="H26" t="n">
-        <v>15.67101545715717</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="I26" t="n">
-        <v>15.67101545715717</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29325,25 +29325,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>15.67101545715717</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="T26" t="n">
-        <v>15.67101545715717</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="U26" t="n">
-        <v>15.67101545715717</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="V26" t="n">
-        <v>15.67101545715717</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="W26" t="n">
-        <v>15.67101545715717</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="X26" t="n">
-        <v>15.67101545715717</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="Y26" t="n">
-        <v>15.67101545715717</v>
+        <v>29.49894172633793</v>
       </c>
     </row>
     <row r="27">
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>15.67101545715717</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="C28" t="n">
-        <v>15.67101545715717</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="D28" t="n">
-        <v>15.67101545715717</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="E28" t="n">
-        <v>15.67101545715717</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="F28" t="n">
-        <v>15.67101545715717</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="G28" t="n">
-        <v>15.67101545715717</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="H28" t="n">
-        <v>15.67101545715717</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="I28" t="n">
-        <v>15.67101545715717</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="J28" t="n">
-        <v>15.67101545715717</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="K28" t="n">
-        <v>15.67101545715717</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="L28" t="n">
-        <v>15.67101545715717</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="M28" t="n">
-        <v>15.67101545715717</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="N28" t="n">
-        <v>15.67101545715717</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="O28" t="n">
-        <v>15.67101545715717</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="P28" t="n">
-        <v>15.67101545715717</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="Q28" t="n">
-        <v>15.67101545715717</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="R28" t="n">
-        <v>15.67101545715717</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="S28" t="n">
-        <v>15.67101545715717</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="T28" t="n">
-        <v>15.67101545715717</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="U28" t="n">
-        <v>15.67101545715717</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="V28" t="n">
-        <v>15.67101545715717</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="W28" t="n">
-        <v>15.67101545715717</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="X28" t="n">
-        <v>15.67101545715717</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="Y28" t="n">
-        <v>15.67101545715717</v>
+        <v>29.49894172633793</v>
       </c>
     </row>
     <row r="29">
@@ -29511,28 +29511,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>15.67101545715723</v>
+        <v>9.620336678322179</v>
       </c>
       <c r="C29" t="n">
-        <v>15.67101545715723</v>
+        <v>9.620336678322179</v>
       </c>
       <c r="D29" t="n">
-        <v>15.67101545715723</v>
+        <v>9.620336678322179</v>
       </c>
       <c r="E29" t="n">
-        <v>15.67101545715723</v>
+        <v>9.620336678322179</v>
       </c>
       <c r="F29" t="n">
-        <v>15.67101545715723</v>
+        <v>9.620336678322179</v>
       </c>
       <c r="G29" t="n">
-        <v>15.67101545715723</v>
+        <v>9.620336678322179</v>
       </c>
       <c r="H29" t="n">
-        <v>15.67101545715723</v>
+        <v>9.620336678322179</v>
       </c>
       <c r="I29" t="n">
-        <v>15.67101545715723</v>
+        <v>9.620336678322179</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29562,25 +29562,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>15.67101545715723</v>
+        <v>9.620336678322179</v>
       </c>
       <c r="T29" t="n">
-        <v>15.67101545715723</v>
+        <v>9.620336678322179</v>
       </c>
       <c r="U29" t="n">
-        <v>15.67101545715723</v>
+        <v>9.620336678322179</v>
       </c>
       <c r="V29" t="n">
-        <v>15.67101545715723</v>
+        <v>9.620336678322179</v>
       </c>
       <c r="W29" t="n">
-        <v>15.67101545715723</v>
+        <v>9.620336678322179</v>
       </c>
       <c r="X29" t="n">
-        <v>15.67101545715723</v>
+        <v>9.620336678322179</v>
       </c>
       <c r="Y29" t="n">
-        <v>15.67101545715723</v>
+        <v>9.620336678322179</v>
       </c>
     </row>
     <row r="30">
@@ -29669,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>15.67101545715723</v>
+        <v>9.620336678322179</v>
       </c>
       <c r="C31" t="n">
-        <v>15.67101545715723</v>
+        <v>9.620336678322179</v>
       </c>
       <c r="D31" t="n">
-        <v>15.67101545715723</v>
+        <v>9.620336678322179</v>
       </c>
       <c r="E31" t="n">
-        <v>15.67101545715723</v>
+        <v>9.620336678322179</v>
       </c>
       <c r="F31" t="n">
-        <v>15.67101545715723</v>
+        <v>9.620336678322179</v>
       </c>
       <c r="G31" t="n">
-        <v>15.67101545715723</v>
+        <v>9.620336678322179</v>
       </c>
       <c r="H31" t="n">
-        <v>15.67101545715723</v>
+        <v>9.620336678322179</v>
       </c>
       <c r="I31" t="n">
-        <v>15.67101545715723</v>
+        <v>9.620336678322179</v>
       </c>
       <c r="J31" t="n">
-        <v>15.67101545715723</v>
+        <v>9.620336678322179</v>
       </c>
       <c r="K31" t="n">
-        <v>15.67101545715723</v>
+        <v>9.620336678322179</v>
       </c>
       <c r="L31" t="n">
-        <v>15.67101545715723</v>
+        <v>9.620336678322179</v>
       </c>
       <c r="M31" t="n">
-        <v>15.67101545715723</v>
+        <v>9.620336678322179</v>
       </c>
       <c r="N31" t="n">
-        <v>15.67101545715723</v>
+        <v>9.620336678322179</v>
       </c>
       <c r="O31" t="n">
-        <v>15.67101545715723</v>
+        <v>9.620336678322179</v>
       </c>
       <c r="P31" t="n">
-        <v>15.67101545715723</v>
+        <v>9.620336678322179</v>
       </c>
       <c r="Q31" t="n">
-        <v>15.67101545715723</v>
+        <v>9.620336678322179</v>
       </c>
       <c r="R31" t="n">
-        <v>15.67101545715723</v>
+        <v>9.620336678322179</v>
       </c>
       <c r="S31" t="n">
-        <v>15.67101545715723</v>
+        <v>9.620336678322179</v>
       </c>
       <c r="T31" t="n">
-        <v>15.67101545715723</v>
+        <v>9.620336678322179</v>
       </c>
       <c r="U31" t="n">
-        <v>15.67101545715723</v>
+        <v>9.620336678322179</v>
       </c>
       <c r="V31" t="n">
-        <v>15.67101545715723</v>
+        <v>9.620336678322179</v>
       </c>
       <c r="W31" t="n">
-        <v>15.67101545715723</v>
+        <v>9.620336678322179</v>
       </c>
       <c r="X31" t="n">
-        <v>15.67101545715723</v>
+        <v>9.620336678322179</v>
       </c>
       <c r="Y31" t="n">
-        <v>15.67101545715723</v>
+        <v>9.620336678322179</v>
       </c>
     </row>
     <row r="32">
@@ -29748,28 +29748,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>15.67101545715723</v>
+        <v>23.39971265102408</v>
       </c>
       <c r="C32" t="n">
-        <v>15.67101545715723</v>
+        <v>23.39971265102408</v>
       </c>
       <c r="D32" t="n">
-        <v>15.67101545715723</v>
+        <v>23.39971265102408</v>
       </c>
       <c r="E32" t="n">
-        <v>15.67101545715723</v>
+        <v>23.39971265102408</v>
       </c>
       <c r="F32" t="n">
-        <v>15.67101545715723</v>
+        <v>23.39971265102408</v>
       </c>
       <c r="G32" t="n">
-        <v>15.67101545715723</v>
+        <v>23.39971265102408</v>
       </c>
       <c r="H32" t="n">
-        <v>15.67101545715723</v>
+        <v>23.39971265102408</v>
       </c>
       <c r="I32" t="n">
-        <v>15.67101545715723</v>
+        <v>23.39971265102408</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29799,25 +29799,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>15.67101545715723</v>
+        <v>23.39971265102408</v>
       </c>
       <c r="T32" t="n">
-        <v>15.67101545715723</v>
+        <v>23.39971265102408</v>
       </c>
       <c r="U32" t="n">
-        <v>15.67101545715723</v>
+        <v>23.39971265102408</v>
       </c>
       <c r="V32" t="n">
-        <v>15.67101545715723</v>
+        <v>23.39971265102408</v>
       </c>
       <c r="W32" t="n">
-        <v>15.67101545715723</v>
+        <v>23.39971265102408</v>
       </c>
       <c r="X32" t="n">
-        <v>15.67101545715723</v>
+        <v>23.39971265102408</v>
       </c>
       <c r="Y32" t="n">
-        <v>15.67101545715723</v>
+        <v>23.39971265102408</v>
       </c>
     </row>
     <row r="33">
@@ -29906,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>15.67101545715723</v>
+        <v>23.39971265102408</v>
       </c>
       <c r="C34" t="n">
-        <v>15.67101545715723</v>
+        <v>23.39971265102408</v>
       </c>
       <c r="D34" t="n">
-        <v>15.67101545715723</v>
+        <v>23.39971265102408</v>
       </c>
       <c r="E34" t="n">
-        <v>15.67101545715723</v>
+        <v>23.39971265102408</v>
       </c>
       <c r="F34" t="n">
-        <v>15.67101545715723</v>
+        <v>23.39971265102408</v>
       </c>
       <c r="G34" t="n">
-        <v>15.67101545715723</v>
+        <v>23.39971265102408</v>
       </c>
       <c r="H34" t="n">
-        <v>15.67101545715723</v>
+        <v>23.39971265102408</v>
       </c>
       <c r="I34" t="n">
-        <v>15.67101545715723</v>
+        <v>23.39971265102408</v>
       </c>
       <c r="J34" t="n">
-        <v>15.67101545715723</v>
+        <v>23.39971265102408</v>
       </c>
       <c r="K34" t="n">
-        <v>15.67101545715723</v>
+        <v>23.39971265102408</v>
       </c>
       <c r="L34" t="n">
-        <v>15.67101545715723</v>
+        <v>23.39971265102408</v>
       </c>
       <c r="M34" t="n">
-        <v>15.67101545715723</v>
+        <v>23.39971265102408</v>
       </c>
       <c r="N34" t="n">
-        <v>15.67101545715723</v>
+        <v>23.39971265102408</v>
       </c>
       <c r="O34" t="n">
-        <v>15.67101545715723</v>
+        <v>23.39971265102408</v>
       </c>
       <c r="P34" t="n">
-        <v>15.67101545715723</v>
+        <v>23.39971265102408</v>
       </c>
       <c r="Q34" t="n">
-        <v>15.67101545715723</v>
+        <v>23.39971265102408</v>
       </c>
       <c r="R34" t="n">
-        <v>15.67101545715723</v>
+        <v>23.39971265102408</v>
       </c>
       <c r="S34" t="n">
-        <v>15.67101545715723</v>
+        <v>23.39971265102408</v>
       </c>
       <c r="T34" t="n">
-        <v>15.67101545715723</v>
+        <v>23.39971265102408</v>
       </c>
       <c r="U34" t="n">
-        <v>15.67101545715723</v>
+        <v>23.39971265102408</v>
       </c>
       <c r="V34" t="n">
-        <v>15.67101545715723</v>
+        <v>23.39971265102408</v>
       </c>
       <c r="W34" t="n">
-        <v>15.67101545715723</v>
+        <v>23.39971265102408</v>
       </c>
       <c r="X34" t="n">
-        <v>15.67101545715723</v>
+        <v>23.39971265102408</v>
       </c>
       <c r="Y34" t="n">
-        <v>15.67101545715723</v>
+        <v>23.39971265102408</v>
       </c>
     </row>
     <row r="35">
@@ -29985,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>15.67101545715723</v>
+        <v>23.39971265102408</v>
       </c>
       <c r="C35" t="n">
-        <v>15.67101545715723</v>
+        <v>23.39971265102408</v>
       </c>
       <c r="D35" t="n">
-        <v>15.67101545715723</v>
+        <v>23.39971265102408</v>
       </c>
       <c r="E35" t="n">
-        <v>15.67101545715723</v>
+        <v>23.39971265102408</v>
       </c>
       <c r="F35" t="n">
-        <v>15.67101545715723</v>
+        <v>23.39971265102408</v>
       </c>
       <c r="G35" t="n">
-        <v>15.67101545715723</v>
+        <v>23.39971265102408</v>
       </c>
       <c r="H35" t="n">
-        <v>15.67101545715723</v>
+        <v>23.39971265102408</v>
       </c>
       <c r="I35" t="n">
-        <v>15.67101545715723</v>
+        <v>23.39971265102408</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>15.67101545715723</v>
+        <v>23.39971265102408</v>
       </c>
       <c r="T35" t="n">
-        <v>15.67101545715723</v>
+        <v>23.39971265102408</v>
       </c>
       <c r="U35" t="n">
-        <v>15.67101545715723</v>
+        <v>23.39971265102408</v>
       </c>
       <c r="V35" t="n">
-        <v>15.67101545715723</v>
+        <v>23.39971265102408</v>
       </c>
       <c r="W35" t="n">
-        <v>15.67101545715723</v>
+        <v>23.39971265102408</v>
       </c>
       <c r="X35" t="n">
-        <v>15.67101545715723</v>
+        <v>23.39971265102408</v>
       </c>
       <c r="Y35" t="n">
-        <v>15.67101545715723</v>
+        <v>23.39971265102408</v>
       </c>
     </row>
     <row r="36">
@@ -30143,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>15.67101545715723</v>
+        <v>23.39971265102408</v>
       </c>
       <c r="C37" t="n">
-        <v>15.67101545715723</v>
+        <v>23.39971265102408</v>
       </c>
       <c r="D37" t="n">
-        <v>15.67101545715723</v>
+        <v>23.39971265102408</v>
       </c>
       <c r="E37" t="n">
-        <v>15.67101545715723</v>
+        <v>23.39971265102408</v>
       </c>
       <c r="F37" t="n">
-        <v>15.67101545715723</v>
+        <v>23.39971265102408</v>
       </c>
       <c r="G37" t="n">
-        <v>15.67101545715723</v>
+        <v>23.39971265102408</v>
       </c>
       <c r="H37" t="n">
-        <v>15.67101545715723</v>
+        <v>23.39971265102408</v>
       </c>
       <c r="I37" t="n">
-        <v>15.67101545715723</v>
+        <v>23.39971265102408</v>
       </c>
       <c r="J37" t="n">
-        <v>15.67101545715723</v>
+        <v>23.39971265102408</v>
       </c>
       <c r="K37" t="n">
-        <v>15.67101545715723</v>
+        <v>23.39971265102408</v>
       </c>
       <c r="L37" t="n">
-        <v>15.67101545715723</v>
+        <v>23.39971265102408</v>
       </c>
       <c r="M37" t="n">
-        <v>15.67101545715723</v>
+        <v>23.39971265102408</v>
       </c>
       <c r="N37" t="n">
-        <v>15.67101545715723</v>
+        <v>23.39971265102408</v>
       </c>
       <c r="O37" t="n">
-        <v>15.67101545715723</v>
+        <v>23.39971265102408</v>
       </c>
       <c r="P37" t="n">
-        <v>15.67101545715723</v>
+        <v>23.39971265102408</v>
       </c>
       <c r="Q37" t="n">
-        <v>15.67101545715723</v>
+        <v>23.39971265102408</v>
       </c>
       <c r="R37" t="n">
-        <v>15.67101545715723</v>
+        <v>23.39971265102408</v>
       </c>
       <c r="S37" t="n">
-        <v>15.67101545715723</v>
+        <v>23.39971265102408</v>
       </c>
       <c r="T37" t="n">
-        <v>15.67101545715723</v>
+        <v>23.39971265102408</v>
       </c>
       <c r="U37" t="n">
-        <v>15.67101545715723</v>
+        <v>23.39971265102408</v>
       </c>
       <c r="V37" t="n">
-        <v>15.67101545715723</v>
+        <v>23.39971265102408</v>
       </c>
       <c r="W37" t="n">
-        <v>15.67101545715723</v>
+        <v>23.39971265102408</v>
       </c>
       <c r="X37" t="n">
-        <v>15.67101545715723</v>
+        <v>23.39971265102408</v>
       </c>
       <c r="Y37" t="n">
-        <v>15.67101545715723</v>
+        <v>23.39971265102408</v>
       </c>
     </row>
     <row r="38">
@@ -30222,28 +30222,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>15.67101545715711</v>
+        <v>23.39971265102408</v>
       </c>
       <c r="C38" t="n">
-        <v>15.67101545715711</v>
+        <v>23.39971265102408</v>
       </c>
       <c r="D38" t="n">
-        <v>15.67101545715711</v>
+        <v>23.39971265102408</v>
       </c>
       <c r="E38" t="n">
-        <v>15.67101545715711</v>
+        <v>23.39971265102408</v>
       </c>
       <c r="F38" t="n">
-        <v>15.67101545715711</v>
+        <v>23.39971265102408</v>
       </c>
       <c r="G38" t="n">
-        <v>15.67101545715711</v>
+        <v>23.39971265102408</v>
       </c>
       <c r="H38" t="n">
-        <v>15.67101545715711</v>
+        <v>23.39971265102408</v>
       </c>
       <c r="I38" t="n">
-        <v>15.67101545715711</v>
+        <v>23.39971265102408</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30273,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>15.67101545715711</v>
+        <v>23.39971265102408</v>
       </c>
       <c r="T38" t="n">
-        <v>15.67101545715711</v>
+        <v>23.39971265102408</v>
       </c>
       <c r="U38" t="n">
-        <v>15.67101545715711</v>
+        <v>23.39971265102408</v>
       </c>
       <c r="V38" t="n">
-        <v>15.67101545715711</v>
+        <v>23.39971265102408</v>
       </c>
       <c r="W38" t="n">
-        <v>15.67101545715711</v>
+        <v>23.39971265102408</v>
       </c>
       <c r="X38" t="n">
-        <v>15.67101545715711</v>
+        <v>23.39971265102408</v>
       </c>
       <c r="Y38" t="n">
-        <v>15.67101545715711</v>
+        <v>23.39971265102408</v>
       </c>
     </row>
     <row r="39">
@@ -30380,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>15.67101545715711</v>
+        <v>23.39971265102408</v>
       </c>
       <c r="C40" t="n">
-        <v>15.67101545715711</v>
+        <v>23.39971265102408</v>
       </c>
       <c r="D40" t="n">
-        <v>15.67101545715711</v>
+        <v>23.39971265102408</v>
       </c>
       <c r="E40" t="n">
-        <v>15.67101545715711</v>
+        <v>23.39971265102408</v>
       </c>
       <c r="F40" t="n">
-        <v>15.67101545715711</v>
+        <v>23.39971265102408</v>
       </c>
       <c r="G40" t="n">
-        <v>15.67101545715711</v>
+        <v>23.39971265102408</v>
       </c>
       <c r="H40" t="n">
-        <v>15.67101545715711</v>
+        <v>23.39971265102408</v>
       </c>
       <c r="I40" t="n">
-        <v>15.67101545715711</v>
+        <v>23.39971265102408</v>
       </c>
       <c r="J40" t="n">
-        <v>15.67101545715711</v>
+        <v>23.39971265102408</v>
       </c>
       <c r="K40" t="n">
-        <v>15.67101545715711</v>
+        <v>23.39971265102408</v>
       </c>
       <c r="L40" t="n">
-        <v>15.67101545715711</v>
+        <v>23.39971265102408</v>
       </c>
       <c r="M40" t="n">
-        <v>15.67101545715711</v>
+        <v>23.39971265102408</v>
       </c>
       <c r="N40" t="n">
-        <v>15.67101545715711</v>
+        <v>23.39971265102408</v>
       </c>
       <c r="O40" t="n">
-        <v>15.67101545715711</v>
+        <v>23.39971265102408</v>
       </c>
       <c r="P40" t="n">
-        <v>15.67101545715711</v>
+        <v>23.39971265102408</v>
       </c>
       <c r="Q40" t="n">
-        <v>15.67101545715711</v>
+        <v>23.39971265102408</v>
       </c>
       <c r="R40" t="n">
-        <v>15.67101545715711</v>
+        <v>23.39971265102408</v>
       </c>
       <c r="S40" t="n">
-        <v>15.67101545715711</v>
+        <v>23.39971265102408</v>
       </c>
       <c r="T40" t="n">
-        <v>15.67101545715711</v>
+        <v>23.39971265102408</v>
       </c>
       <c r="U40" t="n">
-        <v>15.67101545715711</v>
+        <v>23.39971265102408</v>
       </c>
       <c r="V40" t="n">
-        <v>15.67101545715711</v>
+        <v>23.39971265102408</v>
       </c>
       <c r="W40" t="n">
-        <v>15.67101545715711</v>
+        <v>23.39971265102408</v>
       </c>
       <c r="X40" t="n">
-        <v>15.67101545715711</v>
+        <v>23.39971265102408</v>
       </c>
       <c r="Y40" t="n">
-        <v>15.67101545715711</v>
+        <v>23.39971265102408</v>
       </c>
     </row>
     <row r="41">
@@ -30459,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>23.39971265102408</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>23.39971265102408</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>23.39971265102408</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>23.39971265102408</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>23.39971265102408</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>23.39971265102408</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>23.39971265102408</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>23.39971265102408</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30510,25 +30510,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>23.39971265102408</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>23.39971265102408</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>23.39971265102408</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>23.39971265102408</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>23.39971265102408</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>23.39971265102408</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>23.39971265102408</v>
       </c>
     </row>
     <row r="42">
@@ -30617,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>23.39971265102408</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>23.39971265102408</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>23.39971265102408</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>23.39971265102408</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>23.39971265102408</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>23.39971265102408</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>23.39971265102408</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>23.39971265102408</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>23.39971265102408</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>23.39971265102408</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>23.39971265102408</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>23.39971265102408</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>23.39971265102408</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>23.39971265102408</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>23.39971265102408</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>23.39971265102408</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>23.39971265102408</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>23.39971265102408</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>23.39971265102408</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>23.39971265102408</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>23.39971265102408</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>23.39971265102408</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>23.39971265102408</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>23.39971265102408</v>
       </c>
     </row>
     <row r="44">
@@ -30696,28 +30696,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>14.44552988642351</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>14.44552988642351</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>14.44552988642351</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>14.44552988642351</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>14.44552988642351</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>14.44552988642351</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>14.44552988642351</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>14.44552988642351</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30747,25 +30747,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>14.44552988642351</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>14.44552988642351</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>14.44552988642351</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>14.44552988642351</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>14.44552988642351</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>14.44552988642351</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>14.44552988642351</v>
       </c>
     </row>
     <row r="45">
@@ -30854,76 +30854,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>14.44552988642351</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>14.44552988642351</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>14.44552988642351</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>14.44552988642351</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>14.44552988642351</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>14.44552988642351</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>14.44552988642351</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>14.44552988642351</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>14.44552988642351</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>14.44552988642351</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>14.44552988642351</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>14.44552988642351</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>14.44552988642351</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>14.44552988642351</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>14.44552988642351</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>14.44552988642351</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>14.44552988642351</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>14.44552988642351</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>14.44552988642351</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>14.44552988642351</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>14.44552988642351</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>14.44552988642351</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>14.44552988642351</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>14.44552988642351</v>
       </c>
     </row>
   </sheetData>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L2" t="n">
-        <v>441.8756042977813</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>500.9700927793178</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O2" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="P2" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L3" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O3" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>117.7337452574854</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>353.3782471555388</v>
+        <v>338.0047407346337</v>
       </c>
       <c r="R3" t="n">
         <v>29.85810036629282</v>
@@ -34938,25 +34938,25 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>400.909295520443</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="L5" t="n">
-        <v>203.2507825193992</v>
-      </c>
-      <c r="M5" t="n">
+      <c r="P5" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="N5" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R5" t="n">
         <v>40.9663087773382</v>
@@ -35014,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K6" t="n">
-        <v>147.5918456237788</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>506.6900639491207</v>
       </c>
       <c r="N6" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35172,13 +35172,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>500.9700927793178</v>
       </c>
       <c r="L8" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>522.0635703700256</v>
@@ -35187,7 +35187,7 @@
         <v>522.0635703700256</v>
       </c>
       <c r="O8" t="n">
-        <v>203.2507825193993</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -35196,7 +35196,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="M9" t="n">
-        <v>500.9700927793178</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="P9" t="n">
-        <v>522.0635703700256</v>
+        <v>209.2450561298658</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35491,7 +35491,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>460.4103598639381</v>
+        <v>91.08941569106818</v>
       </c>
       <c r="L12" t="n">
         <v>667.7658302215033</v>
@@ -35503,16 +35503,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P12" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q12" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>18.22667726606008</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>43.72373910533852</v>
+        <v>14.22479737900053</v>
       </c>
       <c r="K13" t="n">
-        <v>185.6124040720329</v>
+        <v>156.1134623456949</v>
       </c>
       <c r="L13" t="n">
-        <v>292.0212652415507</v>
+        <v>262.5223235152127</v>
       </c>
       <c r="M13" t="n">
-        <v>321.6848573227958</v>
+        <v>292.1859155964578</v>
       </c>
       <c r="N13" t="n">
-        <v>313.174479498308</v>
+        <v>283.67553777197</v>
       </c>
       <c r="O13" t="n">
-        <v>291.6813763995442</v>
+        <v>262.1824346732062</v>
       </c>
       <c r="P13" t="n">
-        <v>237.2519116754414</v>
+        <v>207.7529699491034</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.68887081978329</v>
+        <v>66.18992909344529</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35652,7 +35652,7 @@
         <v>543.5954556656965</v>
       </c>
       <c r="L14" t="n">
-        <v>719.7892927396346</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M14" t="n">
         <v>784.1601929209636</v>
@@ -35670,7 +35670,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R14" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>18.22667726606021</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M15" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>43.72373910533846</v>
+        <v>43.05758519161685</v>
       </c>
       <c r="K16" t="n">
-        <v>185.6124040720329</v>
+        <v>184.9462501583112</v>
       </c>
       <c r="L16" t="n">
-        <v>292.0212652415506</v>
+        <v>291.355111327829</v>
       </c>
       <c r="M16" t="n">
-        <v>321.6848573227958</v>
+        <v>321.0187034090742</v>
       </c>
       <c r="N16" t="n">
-        <v>313.1744794983079</v>
+        <v>312.5083255845863</v>
       </c>
       <c r="O16" t="n">
-        <v>291.6813763995441</v>
+        <v>291.0152224858226</v>
       </c>
       <c r="P16" t="n">
-        <v>237.2519116754413</v>
+        <v>236.5857577617197</v>
       </c>
       <c r="Q16" t="n">
-        <v>95.68887081978322</v>
+        <v>95.0227169060616</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35962,10 +35962,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L18" t="n">
         <v>667.7658302215033</v>
@@ -35974,13 +35974,13 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>120.9475160573612</v>
+        <v>33.15638339129857</v>
       </c>
       <c r="O18" t="n">
         <v>711.0677682281761</v>
       </c>
       <c r="P18" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>43.72373910533846</v>
+        <v>43.72373910533845</v>
       </c>
       <c r="K19" t="n">
         <v>185.6124040720329</v>
@@ -36062,7 +36062,7 @@
         <v>237.2519116754413</v>
       </c>
       <c r="Q19" t="n">
-        <v>95.68887081978322</v>
+        <v>95.6888708197832</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R20" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,22 +36199,22 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M21" t="n">
-        <v>473.6101143363514</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>882.4829213248665</v>
+        <v>714.3660512531817</v>
       </c>
       <c r="O21" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36223,7 +36223,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>43.72373910533846</v>
+        <v>43.72373910533845</v>
       </c>
       <c r="K22" t="n">
         <v>185.6124040720329</v>
@@ -36299,7 +36299,7 @@
         <v>237.2519116754413</v>
       </c>
       <c r="Q22" t="n">
-        <v>95.68887081978322</v>
+        <v>95.6888708197832</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>256.7530014825801</v>
+        <v>256.7530014825803</v>
       </c>
       <c r="K23" t="n">
         <v>543.5954556656965</v>
@@ -36372,7 +36372,7 @@
         <v>760.7889056955737</v>
       </c>
       <c r="O23" t="n">
-        <v>650.132178199096</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P23" t="n">
         <v>534.50171506985</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L24" t="n">
         <v>667.7658302215033</v>
       </c>
       <c r="M24" t="n">
-        <v>851.4920007015825</v>
+        <v>360.9878040976428</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>547.9029729663084</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>43.72373910533858</v>
+        <v>43.72373910533845</v>
       </c>
       <c r="K25" t="n">
-        <v>185.612404072033</v>
+        <v>185.6124040720329</v>
       </c>
       <c r="L25" t="n">
-        <v>292.0212652415507</v>
+        <v>292.0212652415506</v>
       </c>
       <c r="M25" t="n">
-        <v>321.6848573227959</v>
+        <v>321.6848573227958</v>
       </c>
       <c r="N25" t="n">
-        <v>313.174479498308</v>
+        <v>313.1744794983079</v>
       </c>
       <c r="O25" t="n">
-        <v>291.6813763995443</v>
+        <v>291.6813763995441</v>
       </c>
       <c r="P25" t="n">
-        <v>237.2519116754414</v>
+        <v>237.2519116754413</v>
       </c>
       <c r="Q25" t="n">
-        <v>95.68887081978335</v>
+        <v>95.6888708197832</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36673,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L27" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>547.9029729663084</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>29.8958128361577</v>
+        <v>43.72373910533845</v>
       </c>
       <c r="K28" t="n">
-        <v>171.7844778028521</v>
+        <v>185.6124040720329</v>
       </c>
       <c r="L28" t="n">
-        <v>278.1933389723699</v>
+        <v>292.0212652415506</v>
       </c>
       <c r="M28" t="n">
-        <v>307.856931053615</v>
+        <v>321.6848573227958</v>
       </c>
       <c r="N28" t="n">
-        <v>299.3465532291272</v>
+        <v>313.1744794983079</v>
       </c>
       <c r="O28" t="n">
-        <v>277.8534501303634</v>
+        <v>291.6813763995441</v>
       </c>
       <c r="P28" t="n">
-        <v>223.4239854062606</v>
+        <v>237.2519116754413</v>
       </c>
       <c r="Q28" t="n">
-        <v>81.86094455060245</v>
+        <v>95.6888708197832</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36910,25 +36910,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M30" t="n">
-        <v>473.6101143363514</v>
+        <v>176.8444622371211</v>
       </c>
       <c r="N30" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>29.89581283615776</v>
+        <v>23.84513405732271</v>
       </c>
       <c r="K31" t="n">
-        <v>171.7844778028522</v>
+        <v>165.7337990240171</v>
       </c>
       <c r="L31" t="n">
-        <v>278.1933389723699</v>
+        <v>272.1426601935349</v>
       </c>
       <c r="M31" t="n">
-        <v>307.8569310536151</v>
+        <v>301.80625227478</v>
       </c>
       <c r="N31" t="n">
-        <v>299.3465532291272</v>
+        <v>293.2958744502922</v>
       </c>
       <c r="O31" t="n">
-        <v>277.8534501303635</v>
+        <v>271.8027713515284</v>
       </c>
       <c r="P31" t="n">
-        <v>223.4239854062606</v>
+        <v>217.3733066274256</v>
       </c>
       <c r="Q31" t="n">
-        <v>81.86094455060251</v>
+        <v>75.81026577176746</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37147,22 +37147,22 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M33" t="n">
-        <v>851.4920007015825</v>
+        <v>744.2241516194746</v>
       </c>
       <c r="N33" t="n">
-        <v>504.6010349596355</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>29.89581283615776</v>
+        <v>37.62451003002461</v>
       </c>
       <c r="K34" t="n">
-        <v>171.7844778028522</v>
+        <v>179.513174996719</v>
       </c>
       <c r="L34" t="n">
-        <v>278.1933389723699</v>
+        <v>285.9220361662368</v>
       </c>
       <c r="M34" t="n">
-        <v>307.8569310536151</v>
+        <v>315.5856282474819</v>
       </c>
       <c r="N34" t="n">
-        <v>299.3465532291272</v>
+        <v>307.075250422994</v>
       </c>
       <c r="O34" t="n">
-        <v>277.8534501303635</v>
+        <v>285.5821473242303</v>
       </c>
       <c r="P34" t="n">
-        <v>223.4239854062606</v>
+        <v>231.1526826001275</v>
       </c>
       <c r="Q34" t="n">
-        <v>81.86094455060251</v>
+        <v>89.58964174446936</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R35" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,19 +37384,19 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L36" t="n">
         <v>667.7658302215033</v>
       </c>
       <c r="M36" t="n">
-        <v>851.4920007015825</v>
+        <v>714.3660512531817</v>
       </c>
       <c r="N36" t="n">
-        <v>547.9029729663084</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37408,7 +37408,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>29.89581283615776</v>
+        <v>37.62451003002461</v>
       </c>
       <c r="K37" t="n">
-        <v>171.7844778028522</v>
+        <v>179.513174996719</v>
       </c>
       <c r="L37" t="n">
-        <v>278.1933389723699</v>
+        <v>285.9220361662368</v>
       </c>
       <c r="M37" t="n">
-        <v>307.8569310536151</v>
+        <v>315.5856282474819</v>
       </c>
       <c r="N37" t="n">
-        <v>299.3465532291272</v>
+        <v>307.075250422994</v>
       </c>
       <c r="O37" t="n">
-        <v>277.8534501303635</v>
+        <v>285.5821473242303</v>
       </c>
       <c r="P37" t="n">
-        <v>223.4239854062606</v>
+        <v>231.1526826001275</v>
       </c>
       <c r="Q37" t="n">
-        <v>81.86094455060251</v>
+        <v>89.58964174446936</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R38" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,25 +37621,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M39" t="n">
-        <v>851.4920007015825</v>
+        <v>744.2241516194746</v>
       </c>
       <c r="N39" t="n">
-        <v>648.289113805458</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>29.89581283615763</v>
+        <v>37.62451003002461</v>
       </c>
       <c r="K40" t="n">
-        <v>171.784477802852</v>
+        <v>179.513174996719</v>
       </c>
       <c r="L40" t="n">
-        <v>278.1933389723698</v>
+        <v>285.9220361662368</v>
       </c>
       <c r="M40" t="n">
-        <v>307.856931053615</v>
+        <v>315.5856282474819</v>
       </c>
       <c r="N40" t="n">
-        <v>299.3465532291271</v>
+        <v>307.075250422994</v>
       </c>
       <c r="O40" t="n">
-        <v>277.8534501303633</v>
+        <v>285.5821473242303</v>
       </c>
       <c r="P40" t="n">
-        <v>223.4239854062605</v>
+        <v>231.1526826001275</v>
       </c>
       <c r="Q40" t="n">
-        <v>81.8609445506024</v>
+        <v>89.58964174446936</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37864,7 +37864,7 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L42" t="n">
-        <v>667.7658302215033</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -37879,10 +37879,10 @@
         <v>567.3796893823536</v>
       </c>
       <c r="Q42" t="n">
-        <v>176.8444622371211</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>14.22479737900053</v>
+        <v>37.62451003002461</v>
       </c>
       <c r="K43" t="n">
-        <v>156.1134623456949</v>
+        <v>179.513174996719</v>
       </c>
       <c r="L43" t="n">
-        <v>262.5223235152127</v>
+        <v>285.9220361662368</v>
       </c>
       <c r="M43" t="n">
-        <v>292.1859155964578</v>
+        <v>315.5856282474819</v>
       </c>
       <c r="N43" t="n">
-        <v>283.67553777197</v>
+        <v>307.075250422994</v>
       </c>
       <c r="O43" t="n">
-        <v>262.1824346732062</v>
+        <v>285.5821473242303</v>
       </c>
       <c r="P43" t="n">
-        <v>207.7529699491034</v>
+        <v>231.1526826001275</v>
       </c>
       <c r="Q43" t="n">
-        <v>66.18992909344529</v>
+        <v>89.58964174446936</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,7 +38019,7 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K44" t="n">
-        <v>543.5954556656965</v>
+        <v>543.5954556656966</v>
       </c>
       <c r="L44" t="n">
         <v>719.7892927396343</v>
@@ -38031,7 +38031,7 @@
         <v>760.7889056955737</v>
       </c>
       <c r="O44" t="n">
-        <v>650.132178199096</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P44" t="n">
         <v>534.50171506985</v>
@@ -38101,10 +38101,10 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M45" t="n">
-        <v>461.3739449367926</v>
+        <v>744.2241516194746</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -38113,13 +38113,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>14.22479737900053</v>
+        <v>28.67032726542404</v>
       </c>
       <c r="K46" t="n">
-        <v>156.1134623456949</v>
+        <v>170.5589922321184</v>
       </c>
       <c r="L46" t="n">
-        <v>262.5223235152127</v>
+        <v>276.9678534016362</v>
       </c>
       <c r="M46" t="n">
-        <v>292.1859155964578</v>
+        <v>306.6314454828814</v>
       </c>
       <c r="N46" t="n">
-        <v>283.67553777197</v>
+        <v>298.1210676583935</v>
       </c>
       <c r="O46" t="n">
-        <v>262.1824346732062</v>
+        <v>276.6279645596297</v>
       </c>
       <c r="P46" t="n">
-        <v>207.7529699491034</v>
+        <v>222.1984998355269</v>
       </c>
       <c r="Q46" t="n">
-        <v>66.18992909344529</v>
+        <v>80.63545897986879</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
